--- a/logicalDesign.xlsx
+++ b/logicalDesign.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\y-morioka\Documents\myWork\develop\C#\csv-designDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E828320-9C21-4319-A79B-668306AA1F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9464D0B4-BB8D-4E8E-8503-D418AFBDE119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="531" yWindow="3369" windowWidth="23126" windowHeight="10774" xr2:uid="{A4939FC1-8CF0-4935-A02B-CBE457FB386B}"/>
+    <workbookView xWindow="1483" yWindow="814" windowWidth="24043" windowHeight="14777" activeTab="5" xr2:uid="{A4939FC1-8CF0-4935-A02B-CBE457FB386B}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <sheet name="画面デザイン" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="331">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="2">
@@ -2826,6 +2825,23 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベース接続設定</t>
+    <rPh sb="6" eb="8">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KENPO31生成ツール</t>
+    <rPh sb="7" eb="9">
+      <t>セイセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3635,55 +3651,6 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>138157</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>102383</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7B873B5-C7C7-E872-A322-D6C6B372B51E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1026160" y="13807440"/>
-          <a:ext cx="7772400" cy="5944384"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
@@ -3707,7 +3674,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3716,6 +3683,55 @@
         <a:xfrm>
           <a:off x="1014139" y="2586522"/>
           <a:ext cx="7684755" cy="6582600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>117099</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>102344</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B01D79B1-D0DF-1589-DE44-68E944DD4991}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1014139" y="13923480"/>
+          <a:ext cx="7625451" cy="5219560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4051,19 +4067,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD89606-F6D3-421A-984C-A39A87549000}">
   <dimension ref="C1:P21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="22.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="22.5" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="8.625" style="13"/>
+    <col min="1" max="16384" width="8.640625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:16" ht="16.5">
+    <row r="1" spans="3:16" ht="15.45">
       <c r="O1" s="14"/>
       <c r="P1" s="15"/>
     </row>
-    <row r="4" spans="3:16" ht="17.25" thickBot="1"/>
-    <row r="5" spans="3:16" ht="17.25" thickTop="1">
+    <row r="4" spans="3:16" ht="15.9" thickBot="1"/>
+    <row r="5" spans="3:16" ht="15.9" thickTop="1">
       <c r="C5" s="16"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
@@ -4093,7 +4109,7 @@
       <c r="M6" s="64"/>
       <c r="N6" s="20"/>
     </row>
-    <row r="7" spans="3:16" ht="17.25" thickBot="1">
+    <row r="7" spans="3:16" ht="15.9" thickBot="1">
       <c r="C7" s="21"/>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
@@ -4107,8 +4123,8 @@
       <c r="M7" s="22"/>
       <c r="N7" s="23"/>
     </row>
-    <row r="8" spans="3:16" ht="17.25" thickTop="1"/>
-    <row r="10" spans="3:16" ht="16.5">
+    <row r="8" spans="3:16" ht="15.9" thickTop="1"/>
+    <row r="10" spans="3:16" ht="15.45">
       <c r="F10" s="58" t="s">
         <v>11</v>
       </c>
@@ -4123,7 +4139,7 @@
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
     </row>
-    <row r="11" spans="3:16" ht="16.5">
+    <row r="11" spans="3:16" ht="15.45">
       <c r="F11" s="58" t="s">
         <v>6</v>
       </c>
@@ -4136,7 +4152,7 @@
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
     </row>
-    <row r="12" spans="3:16" ht="16.5">
+    <row r="12" spans="3:16" ht="15.45">
       <c r="F12" s="58" t="s">
         <v>9</v>
       </c>
@@ -4148,7 +4164,7 @@
       <c r="J12" s="61"/>
       <c r="K12" s="62"/>
     </row>
-    <row r="13" spans="3:16" ht="16.5">
+    <row r="13" spans="3:16" ht="15.45">
       <c r="F13" s="58" t="s">
         <v>3</v>
       </c>
@@ -4160,7 +4176,7 @@
       <c r="J13" s="61"/>
       <c r="K13" s="62"/>
     </row>
-    <row r="14" spans="3:16" ht="16.5">
+    <row r="14" spans="3:16" ht="15.45">
       <c r="F14" s="58" t="s">
         <v>18</v>
       </c>
@@ -4170,7 +4186,7 @@
       <c r="J14" s="61"/>
       <c r="K14" s="62"/>
     </row>
-    <row r="15" spans="3:16" ht="16.5">
+    <row r="15" spans="3:16" ht="15.45">
       <c r="F15" s="58" t="s">
         <v>7</v>
       </c>
@@ -4183,28 +4199,28 @@
         <v>326</v>
       </c>
     </row>
-    <row r="16" spans="3:16" ht="16.5">
+    <row r="16" spans="3:16" ht="15.45">
       <c r="N16" s="13" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="17" spans="7:16" ht="16.5">
+    <row r="17" spans="7:16" ht="15.45">
       <c r="N17" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="7:16" ht="16.5">
+    <row r="19" spans="7:16" ht="15.45">
       <c r="N19" s="24"/>
       <c r="O19" s="24"/>
       <c r="P19" s="24"/>
     </row>
-    <row r="20" spans="7:16" ht="28.5">
+    <row r="20" spans="7:16" ht="28.75">
       <c r="G20" s="25"/>
       <c r="N20" s="26"/>
       <c r="O20" s="26"/>
       <c r="P20" s="26"/>
     </row>
-    <row r="21" spans="7:16" ht="16.5">
+    <row r="21" spans="7:16" ht="15.45">
       <c r="N21" s="27"/>
       <c r="O21" s="27"/>
       <c r="P21" s="27"/>
@@ -4238,18 +4254,18 @@
       <selection sqref="A1:K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.640625" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="3.625" style="6"/>
-    <col min="7" max="7" width="3.625" style="7"/>
-    <col min="8" max="11" width="3.625" style="6"/>
+    <col min="1" max="1" width="5.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="3.640625" style="6"/>
+    <col min="7" max="7" width="3.640625" style="7"/>
+    <col min="8" max="11" width="3.640625" style="6"/>
     <col min="12" max="12" width="4.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.625" style="7"/>
-    <col min="14" max="17" width="3.625" style="6"/>
-    <col min="18" max="18" width="3.625" style="7"/>
-    <col min="19" max="16384" width="3.625" style="6"/>
+    <col min="13" max="13" width="3.640625" style="7"/>
+    <col min="14" max="17" width="3.640625" style="6"/>
+    <col min="18" max="18" width="3.640625" style="7"/>
+    <col min="19" max="16384" width="3.640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:63" s="3" customFormat="1" ht="29.25" customHeight="1">
@@ -4404,7 +4420,7 @@
       <c r="BJ2" s="2"/>
       <c r="BK2" s="2"/>
     </row>
-    <row r="3" spans="1:63">
+    <row r="3" spans="1:63" ht="18">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
@@ -4432,7 +4448,7 @@
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
     </row>
-    <row r="4" spans="1:63">
+    <row r="4" spans="1:63" ht="18">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -4462,7 +4478,7 @@
       <c r="Y4" s="8"/>
       <c r="Z4" s="9"/>
     </row>
-    <row r="5" spans="1:63">
+    <row r="5" spans="1:63" ht="18">
       <c r="A5" s="7"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -4490,7 +4506,7 @@
       <c r="Y5" s="9"/>
       <c r="Z5" s="9"/>
     </row>
-    <row r="6" spans="1:63">
+    <row r="6" spans="1:63" ht="18">
       <c r="A6" s="9" t="s">
         <v>317</v>
       </c>
@@ -4518,7 +4534,7 @@
       <c r="Y6" s="8"/>
       <c r="Z6" s="10"/>
     </row>
-    <row r="7" spans="1:63">
+    <row r="7" spans="1:63" ht="18">
       <c r="A7" s="10"/>
       <c r="B7" s="8" t="s">
         <v>310</v>
@@ -4546,7 +4562,7 @@
       <c r="Y7" s="8"/>
       <c r="Z7" s="10"/>
     </row>
-    <row r="8" spans="1:63">
+    <row r="8" spans="1:63" ht="18">
       <c r="A8" s="10"/>
       <c r="B8" s="8" t="s">
         <v>311</v>
@@ -4574,7 +4590,7 @@
       <c r="Y8" s="8"/>
       <c r="Z8" s="10"/>
     </row>
-    <row r="9" spans="1:63">
+    <row r="9" spans="1:63" ht="18">
       <c r="A9" s="10"/>
       <c r="B9" s="8" t="s">
         <v>312</v>
@@ -4602,7 +4618,7 @@
       <c r="Y9" s="8"/>
       <c r="Z9" s="10"/>
     </row>
-    <row r="10" spans="1:63">
+    <row r="10" spans="1:63" ht="18">
       <c r="A10" s="9" t="s">
         <v>316</v>
       </c>
@@ -4630,7 +4646,7 @@
       <c r="Y10" s="8"/>
       <c r="Z10" s="10"/>
     </row>
-    <row r="11" spans="1:63">
+    <row r="11" spans="1:63" ht="18">
       <c r="A11" s="10"/>
       <c r="B11" s="8" t="s">
         <v>313</v>
@@ -4658,7 +4674,7 @@
       <c r="Y11" s="8"/>
       <c r="Z11" s="10"/>
     </row>
-    <row r="12" spans="1:63">
+    <row r="12" spans="1:63" ht="18">
       <c r="A12" s="10"/>
       <c r="B12" s="9" t="s">
         <v>36</v>
@@ -4686,7 +4702,7 @@
       <c r="Y12" s="9"/>
       <c r="Z12" s="10"/>
     </row>
-    <row r="13" spans="1:63">
+    <row r="13" spans="1:63" ht="18">
       <c r="A13" s="10"/>
       <c r="B13" s="8" t="s">
         <v>173</v>
@@ -4714,7 +4730,7 @@
       <c r="Y13" s="8"/>
       <c r="Z13" s="10"/>
     </row>
-    <row r="14" spans="1:63">
+    <row r="14" spans="1:63" ht="18">
       <c r="A14" s="10"/>
       <c r="B14" s="8" t="s">
         <v>314</v>
@@ -4742,7 +4758,7 @@
       <c r="Y14" s="8"/>
       <c r="Z14" s="10"/>
     </row>
-    <row r="15" spans="1:63">
+    <row r="15" spans="1:63" ht="18">
       <c r="A15" s="9" t="s">
         <v>315</v>
       </c>
@@ -4770,7 +4786,7 @@
       <c r="Y15" s="8"/>
       <c r="Z15" s="10"/>
     </row>
-    <row r="16" spans="1:63">
+    <row r="16" spans="1:63" ht="18">
       <c r="A16" s="10"/>
       <c r="B16" s="8" t="s">
         <v>318</v>
@@ -4797,7 +4813,7 @@
       <c r="Y16" s="8"/>
       <c r="Z16" s="8"/>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" ht="18">
       <c r="A17" s="10"/>
       <c r="B17" s="8" t="s">
         <v>319</v>
@@ -4827,7 +4843,7 @@
       <c r="Y17" s="8"/>
       <c r="Z17" s="8"/>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" ht="18">
       <c r="A18" s="10"/>
       <c r="B18" s="9" t="s">
         <v>127</v>
@@ -4857,7 +4873,7 @@
       <c r="Y18" s="8"/>
       <c r="Z18" s="8"/>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" ht="18">
       <c r="A19" s="9" t="s">
         <v>320</v>
       </c>
@@ -4884,7 +4900,7 @@
       <c r="Y19" s="8"/>
       <c r="Z19" s="8"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" ht="18">
       <c r="A20" s="10"/>
       <c r="B20" s="8" t="s">
         <v>225</v>
@@ -4911,7 +4927,7 @@
       <c r="Y20" s="8"/>
       <c r="Z20" s="8"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" ht="18">
       <c r="A21" s="10"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8" t="s">
@@ -4938,7 +4954,7 @@
       <c r="Y21" s="8"/>
       <c r="Z21" s="8"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" ht="18">
       <c r="A22" s="10"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8" t="s">
@@ -4965,7 +4981,7 @@
       <c r="Y22" s="8"/>
       <c r="Z22" s="8"/>
     </row>
-    <row r="23" spans="1:26" ht="24.75">
+    <row r="23" spans="1:26" ht="24.9">
       <c r="A23" s="10"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -4990,7 +5006,7 @@
       <c r="Y23" s="11"/>
       <c r="Z23" s="11"/>
     </row>
-    <row r="24" spans="1:26" ht="24.75">
+    <row r="24" spans="1:26" ht="24.9">
       <c r="A24" s="10"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -5015,7 +5031,7 @@
       <c r="Y24" s="11"/>
       <c r="Z24" s="11"/>
     </row>
-    <row r="25" spans="1:26" ht="24.75">
+    <row r="25" spans="1:26" ht="24.9">
       <c r="A25" s="10"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -5040,7 +5056,7 @@
       <c r="Y25" s="11"/>
       <c r="Z25" s="11"/>
     </row>
-    <row r="26" spans="1:26" ht="24.75">
+    <row r="26" spans="1:26" ht="24.9">
       <c r="A26" s="11"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
@@ -5051,7 +5067,7 @@
       <c r="Y26" s="11"/>
       <c r="Z26" s="11"/>
     </row>
-    <row r="27" spans="1:26" ht="24.75">
+    <row r="27" spans="1:26" ht="24.9">
       <c r="A27" s="11"/>
       <c r="B27" s="12"/>
       <c r="C27" s="11"/>
@@ -5079,7 +5095,7 @@
       <c r="Y27" s="11"/>
       <c r="Z27" s="11"/>
     </row>
-    <row r="28" spans="1:26" ht="16.5"/>
+    <row r="28" spans="1:26" ht="15.45"/>
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="U1:X1"/>
@@ -5112,19 +5128,19 @@
       <selection sqref="A1:K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.640625" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.625" style="10"/>
-    <col min="3" max="3" width="5.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="3.625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="3.625" style="10" customWidth="1"/>
-    <col min="8" max="11" width="3.625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="3.640625" style="10"/>
+    <col min="3" max="3" width="5.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="3.640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="3.640625" style="10" customWidth="1"/>
+    <col min="8" max="11" width="3.640625" style="8" customWidth="1"/>
     <col min="12" max="12" width="4.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.625" style="10"/>
-    <col min="14" max="17" width="3.625" style="8"/>
-    <col min="18" max="18" width="3.625" style="10"/>
-    <col min="19" max="16384" width="3.625" style="8"/>
+    <col min="13" max="13" width="3.640625" style="10"/>
+    <col min="14" max="17" width="3.640625" style="8"/>
+    <col min="18" max="18" width="3.640625" style="10"/>
+    <col min="19" max="16384" width="3.640625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:63" s="3" customFormat="1" ht="29.25" customHeight="1">
@@ -5279,7 +5295,7 @@
       <c r="BJ2" s="8"/>
       <c r="BK2" s="8"/>
     </row>
-    <row r="3" spans="1:63">
+    <row r="3" spans="1:63" ht="18">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
@@ -5307,7 +5323,7 @@
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
     </row>
-    <row r="4" spans="1:63">
+    <row r="4" spans="1:63" ht="18">
       <c r="A4" s="10"/>
       <c r="B4" s="8"/>
       <c r="G4" s="8"/>
@@ -5319,7 +5335,7 @@
       <c r="S4" s="9"/>
       <c r="Z4" s="9"/>
     </row>
-    <row r="5" spans="1:63">
+    <row r="5" spans="1:63" ht="18">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -5347,7 +5363,7 @@
       <c r="Y5" s="9"/>
       <c r="Z5" s="9"/>
     </row>
-    <row r="6" spans="1:63" ht="33">
+    <row r="6" spans="1:63" ht="32.15">
       <c r="A6" s="35"/>
       <c r="B6" s="37" t="s">
         <v>31</v>
@@ -5362,7 +5378,7 @@
       <c r="S6" s="10"/>
       <c r="Z6" s="10"/>
     </row>
-    <row r="7" spans="1:63">
+    <row r="7" spans="1:63" ht="18">
       <c r="A7" s="10"/>
       <c r="B7" s="8" t="s">
         <v>30</v>
@@ -5376,7 +5392,7 @@
       <c r="S7" s="10"/>
       <c r="Z7" s="10"/>
     </row>
-    <row r="8" spans="1:63">
+    <row r="8" spans="1:63" ht="18">
       <c r="A8" s="10"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8" t="s">
@@ -5391,7 +5407,7 @@
       <c r="S8" s="10"/>
       <c r="Z8" s="10"/>
     </row>
-    <row r="9" spans="1:63">
+    <row r="9" spans="1:63" ht="18">
       <c r="A9" s="10"/>
       <c r="B9" s="8"/>
       <c r="D9" s="8" t="s">
@@ -5406,7 +5422,7 @@
       <c r="S9" s="10"/>
       <c r="Z9" s="10"/>
     </row>
-    <row r="10" spans="1:63">
+    <row r="10" spans="1:63" ht="18">
       <c r="A10" s="10"/>
       <c r="B10" s="8"/>
       <c r="D10" s="8" t="s">
@@ -5421,7 +5437,7 @@
       <c r="S10" s="10"/>
       <c r="Z10" s="10"/>
     </row>
-    <row r="11" spans="1:63">
+    <row r="11" spans="1:63" ht="18">
       <c r="A11" s="10"/>
       <c r="B11" s="8"/>
       <c r="G11" s="8"/>
@@ -5433,7 +5449,7 @@
       <c r="S11" s="10"/>
       <c r="Z11" s="10"/>
     </row>
-    <row r="12" spans="1:63">
+    <row r="12" spans="1:63" ht="18">
       <c r="A12" s="10"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
@@ -5478,7 +5494,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" ht="18">
       <c r="A20" s="10"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -5507,7 +5523,7 @@
       <c r="T20" s="101"/>
       <c r="U20" s="101"/>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" ht="18">
       <c r="A21" s="10"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -5536,7 +5552,7 @@
       <c r="T21" s="5"/>
       <c r="U21" s="44"/>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" ht="18">
       <c r="A22" s="10"/>
       <c r="B22" s="8"/>
       <c r="D22" s="97">
@@ -5554,7 +5570,7 @@
       <c r="R22" s="8"/>
       <c r="U22" s="45"/>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" ht="18">
       <c r="A23" s="10"/>
       <c r="B23" s="8"/>
       <c r="D23" s="97">
@@ -5572,7 +5588,7 @@
       <c r="R23" s="8"/>
       <c r="U23" s="45"/>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" ht="18">
       <c r="A24" s="10"/>
       <c r="B24" s="8"/>
       <c r="D24" s="99">
@@ -5600,7 +5616,7 @@
       <c r="T24" s="33"/>
       <c r="U24" s="34"/>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" ht="18">
       <c r="A25" s="10"/>
       <c r="B25" s="8"/>
       <c r="G25" s="8"/>
@@ -5647,20 +5663,20 @@
       <selection sqref="A1:K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.640625" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.625" style="10"/>
+    <col min="2" max="2" width="3.640625" style="10"/>
     <col min="3" max="3" width="4.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.125" style="8" customWidth="1"/>
-    <col min="5" max="6" width="4.625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="3.625" style="10"/>
-    <col min="8" max="11" width="3.625" style="8"/>
+    <col min="4" max="4" width="4.140625" style="8" customWidth="1"/>
+    <col min="5" max="6" width="4.640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="3.640625" style="10"/>
+    <col min="8" max="11" width="3.640625" style="8"/>
     <col min="12" max="12" width="4.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.625" style="10"/>
-    <col min="14" max="17" width="3.625" style="8"/>
-    <col min="18" max="18" width="3.625" style="10"/>
-    <col min="19" max="16384" width="3.625" style="8"/>
+    <col min="13" max="13" width="3.640625" style="10"/>
+    <col min="14" max="17" width="3.640625" style="8"/>
+    <col min="18" max="18" width="3.640625" style="10"/>
+    <col min="19" max="16384" width="3.640625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" s="3" customFormat="1" ht="29.25" customHeight="1">
@@ -5823,7 +5839,7 @@
       <c r="BN2" s="8"/>
       <c r="BO2" s="8"/>
     </row>
-    <row r="3" spans="1:67">
+    <row r="3" spans="1:67" ht="18">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
@@ -5851,7 +5867,7 @@
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
     </row>
-    <row r="4" spans="1:67">
+    <row r="4" spans="1:67" ht="18">
       <c r="A4" s="10"/>
       <c r="B4" s="8"/>
       <c r="G4" s="8"/>
@@ -5863,7 +5879,7 @@
       <c r="S4" s="9"/>
       <c r="Z4" s="9"/>
     </row>
-    <row r="5" spans="1:67">
+    <row r="5" spans="1:67" ht="18">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -5891,7 +5907,7 @@
       <c r="Y5" s="9"/>
       <c r="Z5" s="9"/>
     </row>
-    <row r="6" spans="1:67" ht="33">
+    <row r="6" spans="1:67" ht="32.15">
       <c r="A6" s="10"/>
       <c r="B6" s="37" t="s">
         <v>174</v>
@@ -5905,7 +5921,7 @@
       <c r="S6" s="10"/>
       <c r="Z6" s="10"/>
     </row>
-    <row r="7" spans="1:67">
+    <row r="7" spans="1:67" ht="18">
       <c r="A7" s="10"/>
       <c r="B7" s="8"/>
       <c r="G7" s="8"/>
@@ -5917,7 +5933,7 @@
       <c r="S7" s="10"/>
       <c r="Z7" s="10"/>
     </row>
-    <row r="8" spans="1:67">
+    <row r="8" spans="1:67" ht="18">
       <c r="A8" s="10"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9" t="s">
@@ -5945,7 +5961,7 @@
       <c r="Y8" s="9"/>
       <c r="Z8" s="10"/>
     </row>
-    <row r="9" spans="1:67">
+    <row r="9" spans="1:67" ht="18">
       <c r="A9" s="10"/>
       <c r="B9" s="8"/>
       <c r="D9" s="8" t="s">
@@ -5960,7 +5976,7 @@
       <c r="S9" s="10"/>
       <c r="Z9" s="10"/>
     </row>
-    <row r="10" spans="1:67">
+    <row r="10" spans="1:67" ht="18">
       <c r="A10" s="10"/>
       <c r="B10" s="8"/>
       <c r="G10" s="8"/>
@@ -5972,7 +5988,7 @@
       <c r="S10" s="10"/>
       <c r="Z10" s="10"/>
     </row>
-    <row r="11" spans="1:67">
+    <row r="11" spans="1:67" ht="18">
       <c r="A11" s="10"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8" t="s">
@@ -5987,7 +6003,7 @@
       <c r="S11" s="10"/>
       <c r="Z11" s="10"/>
     </row>
-    <row r="12" spans="1:67">
+    <row r="12" spans="1:67" ht="18">
       <c r="A12" s="10"/>
       <c r="B12" s="8"/>
       <c r="D12" s="3" t="s">
@@ -6000,7 +6016,7 @@
       <c r="R12" s="8"/>
       <c r="S12" s="10"/>
     </row>
-    <row r="13" spans="1:67">
+    <row r="13" spans="1:67" ht="18">
       <c r="A13" s="10"/>
       <c r="B13" s="8"/>
       <c r="D13" s="3" t="s">
@@ -6013,7 +6029,7 @@
       <c r="R13" s="8"/>
       <c r="S13" s="10"/>
     </row>
-    <row r="14" spans="1:67">
+    <row r="14" spans="1:67" ht="18">
       <c r="A14" s="10"/>
       <c r="B14" s="8"/>
       <c r="D14" s="8" t="s">
@@ -6026,7 +6042,7 @@
       <c r="R14" s="8"/>
       <c r="S14" s="10"/>
     </row>
-    <row r="15" spans="1:67">
+    <row r="15" spans="1:67" ht="18">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6045,7 +6061,7 @@
       <c r="R15" s="9"/>
       <c r="S15" s="10"/>
     </row>
-    <row r="16" spans="1:67">
+    <row r="16" spans="1:67" ht="18">
       <c r="A16" s="10"/>
       <c r="B16" s="8"/>
       <c r="D16" s="8" t="s">
@@ -6058,7 +6074,7 @@
       <c r="R16" s="8"/>
       <c r="S16" s="10"/>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17" spans="1:32" ht="18">
       <c r="A17" s="10"/>
       <c r="B17" s="8"/>
       <c r="D17" s="8" t="s">
@@ -6071,7 +6087,7 @@
       <c r="R17" s="8"/>
       <c r="S17" s="10"/>
     </row>
-    <row r="18" spans="1:32">
+    <row r="18" spans="1:32" ht="18">
       <c r="A18" s="10"/>
       <c r="B18" s="8"/>
       <c r="G18" s="8"/>
@@ -6081,7 +6097,7 @@
       <c r="R18" s="8"/>
       <c r="S18" s="10"/>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" spans="1:32" ht="18">
       <c r="A19" s="10"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8" t="s">
@@ -6094,7 +6110,7 @@
       <c r="R19" s="8"/>
       <c r="S19" s="10"/>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20" spans="1:32" ht="18">
       <c r="A20" s="10"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -6114,7 +6130,7 @@
       <c r="R20" s="9"/>
       <c r="S20" s="10"/>
     </row>
-    <row r="21" spans="1:32">
+    <row r="21" spans="1:32" ht="18">
       <c r="A21" s="10"/>
       <c r="B21" s="8"/>
       <c r="D21" s="8" t="s">
@@ -6127,17 +6143,17 @@
       <c r="R21" s="8"/>
       <c r="S21" s="10"/>
     </row>
-    <row r="22" spans="1:32">
+    <row r="22" spans="1:32" ht="18">
       <c r="D22" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:32">
+    <row r="23" spans="1:32" ht="18">
       <c r="D23" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" spans="1:32" ht="18">
       <c r="D24" s="8" t="s">
         <v>246</v>
       </c>
@@ -6642,24 +6658,24 @@
       <selection sqref="A1:K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.640625" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.625" style="10"/>
-    <col min="3" max="3" width="5.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.125" style="8" customWidth="1"/>
-    <col min="5" max="6" width="4.625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="3.625" style="10"/>
-    <col min="8" max="9" width="3.625" style="8"/>
+    <col min="2" max="2" width="3.640625" style="10"/>
+    <col min="3" max="3" width="5.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.140625" style="8" customWidth="1"/>
+    <col min="5" max="6" width="4.640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="3.640625" style="10"/>
+    <col min="8" max="9" width="3.640625" style="8"/>
     <col min="10" max="10" width="4" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.625" style="8"/>
+    <col min="11" max="11" width="3.640625" style="8"/>
     <col min="12" max="12" width="4.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.625" style="10"/>
-    <col min="14" max="15" width="3.625" style="8"/>
-    <col min="16" max="16" width="5.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.625" style="8"/>
-    <col min="18" max="18" width="3.625" style="10"/>
-    <col min="19" max="16384" width="3.625" style="8"/>
+    <col min="13" max="13" width="3.640625" style="10"/>
+    <col min="14" max="15" width="3.640625" style="8"/>
+    <col min="16" max="16" width="5.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.640625" style="8"/>
+    <col min="18" max="18" width="3.640625" style="10"/>
+    <col min="19" max="16384" width="3.640625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" s="3" customFormat="1" ht="29.25" customHeight="1">
@@ -6822,7 +6838,7 @@
       <c r="BN2" s="8"/>
       <c r="BO2" s="8"/>
     </row>
-    <row r="3" spans="1:67">
+    <row r="3" spans="1:67" ht="18">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
@@ -6850,7 +6866,7 @@
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
     </row>
-    <row r="4" spans="1:67">
+    <row r="4" spans="1:67" ht="18">
       <c r="A4" s="10"/>
       <c r="B4" s="8"/>
       <c r="G4" s="8"/>
@@ -6862,7 +6878,7 @@
       <c r="S4" s="9"/>
       <c r="Z4" s="9"/>
     </row>
-    <row r="5" spans="1:67">
+    <row r="5" spans="1:67" ht="18">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6890,7 +6906,7 @@
       <c r="Y5" s="9"/>
       <c r="Z5" s="9"/>
     </row>
-    <row r="6" spans="1:67" ht="33">
+    <row r="6" spans="1:67" ht="32.15">
       <c r="A6" s="10"/>
       <c r="B6" s="37" t="s">
         <v>71</v>
@@ -6904,7 +6920,7 @@
       <c r="S6" s="10"/>
       <c r="Z6" s="10"/>
     </row>
-    <row r="7" spans="1:67">
+    <row r="7" spans="1:67" ht="18">
       <c r="A7" s="10"/>
       <c r="B7" s="8"/>
       <c r="G7" s="8"/>
@@ -6916,7 +6932,7 @@
       <c r="S7" s="10"/>
       <c r="Z7" s="10"/>
     </row>
-    <row r="8" spans="1:67">
+    <row r="8" spans="1:67" ht="18">
       <c r="A8" s="10"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9" t="s">
@@ -8037,7 +8053,7 @@
       <c r="AK66" s="29"/>
       <c r="AL66" s="30"/>
     </row>
-    <row r="67" spans="4:38">
+    <row r="67" spans="4:38" ht="18">
       <c r="D67" s="105">
         <v>4</v>
       </c>
@@ -8090,7 +8106,7 @@
       <c r="AK67" s="29"/>
       <c r="AL67" s="30"/>
     </row>
-    <row r="68" spans="4:38">
+    <row r="68" spans="4:38" ht="18">
       <c r="D68" s="105"/>
       <c r="E68" s="105"/>
       <c r="F68" s="112"/>
@@ -8129,7 +8145,7 @@
       <c r="AK68" s="29"/>
       <c r="AL68" s="30"/>
     </row>
-    <row r="69" spans="4:38">
+    <row r="69" spans="4:38" ht="18">
       <c r="D69" s="105">
         <v>5</v>
       </c>
@@ -8182,7 +8198,7 @@
       <c r="AK69" s="29"/>
       <c r="AL69" s="30"/>
     </row>
-    <row r="70" spans="4:38">
+    <row r="70" spans="4:38" ht="18">
       <c r="D70" s="105"/>
       <c r="E70" s="105"/>
       <c r="F70" s="112"/>
@@ -9621,24 +9637,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64897AD0-A949-43FB-B054-89E2CBD47A30}">
   <dimension ref="A1:BO97"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="117" workbookViewId="0">
-      <selection sqref="A1:K2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A83" zoomScale="117" workbookViewId="0">
+      <selection activeCell="AI90" sqref="AI90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.640625" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.625" style="10"/>
-    <col min="3" max="3" width="5.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.125" style="8" customWidth="1"/>
-    <col min="5" max="6" width="4.625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="3.625" style="10"/>
-    <col min="8" max="11" width="3.625" style="8"/>
+    <col min="2" max="2" width="3.640625" style="10"/>
+    <col min="3" max="3" width="5.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.140625" style="8" customWidth="1"/>
+    <col min="5" max="6" width="4.640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="3.640625" style="10"/>
+    <col min="8" max="11" width="3.640625" style="8"/>
     <col min="12" max="12" width="4.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.625" style="10"/>
-    <col min="14" max="17" width="3.625" style="8"/>
-    <col min="18" max="18" width="3.625" style="10"/>
-    <col min="19" max="16384" width="3.625" style="8"/>
+    <col min="13" max="13" width="3.640625" style="10"/>
+    <col min="14" max="17" width="3.640625" style="8"/>
+    <col min="18" max="18" width="3.640625" style="10"/>
+    <col min="19" max="16384" width="3.640625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" s="3" customFormat="1" ht="29.25" customHeight="1">
@@ -9801,7 +9817,7 @@
       <c r="BN2" s="8"/>
       <c r="BO2" s="8"/>
     </row>
-    <row r="3" spans="1:67">
+    <row r="3" spans="1:67" ht="18">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
@@ -9829,7 +9845,7 @@
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
     </row>
-    <row r="4" spans="1:67">
+    <row r="4" spans="1:67" ht="18">
       <c r="A4" s="10"/>
       <c r="B4" s="8"/>
       <c r="G4" s="8"/>
@@ -9841,7 +9857,7 @@
       <c r="S4" s="9"/>
       <c r="Z4" s="9"/>
     </row>
-    <row r="5" spans="1:67">
+    <row r="5" spans="1:67" ht="18">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -9869,7 +9885,7 @@
       <c r="Y5" s="9"/>
       <c r="Z5" s="9"/>
     </row>
-    <row r="6" spans="1:67" ht="33">
+    <row r="6" spans="1:67" ht="32.15">
       <c r="A6" s="10"/>
       <c r="B6" s="37" t="s">
         <v>223</v>
@@ -9883,7 +9899,7 @@
       <c r="S6" s="10"/>
       <c r="Z6" s="10"/>
     </row>
-    <row r="7" spans="1:67">
+    <row r="7" spans="1:67" ht="18">
       <c r="A7" s="10"/>
       <c r="B7" s="8"/>
       <c r="G7" s="8"/>
@@ -9895,7 +9911,7 @@
       <c r="S7" s="10"/>
       <c r="Z7" s="10"/>
     </row>
-    <row r="8" spans="1:67">
+    <row r="8" spans="1:67" ht="18">
       <c r="A8" s="10"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9" t="s">
@@ -10000,7 +10016,9 @@
       <c r="U40" s="33"/>
       <c r="V40" s="33"/>
       <c r="W40" s="34"/>
-      <c r="X40" s="52"/>
+      <c r="X40" s="52" t="s">
+        <v>330</v>
+      </c>
       <c r="Y40" s="52"/>
       <c r="Z40" s="52"/>
       <c r="AA40" s="52"/>
@@ -10605,7 +10623,9 @@
       <c r="L87" s="29"/>
       <c r="M87" s="31"/>
       <c r="N87" s="30"/>
-      <c r="O87" s="29"/>
+      <c r="O87" s="29" t="s">
+        <v>329</v>
+      </c>
       <c r="P87" s="29"/>
       <c r="Q87" s="29"/>
       <c r="R87" s="31"/>

--- a/logicalDesign.xlsx
+++ b/logicalDesign.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\y-morioka\Documents\myWork\develop\C#\csv-designDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9464D0B4-BB8D-4E8E-8503-D418AFBDE119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124B8317-1FD0-41AB-84D3-D7342CC7AD32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1483" yWindow="814" windowWidth="24043" windowHeight="14777" activeTab="5" xr2:uid="{A4939FC1-8CF0-4935-A02B-CBE457FB386B}"/>
+    <workbookView xWindow="249" yWindow="797" windowWidth="20554" windowHeight="16946" activeTab="5" xr2:uid="{A4939FC1-8CF0-4935-A02B-CBE457FB386B}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="338">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="2">
@@ -2119,10 +2119,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>出力先ディレクトリを選択してください</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>参照</t>
     <rPh sb="0" eb="2">
       <t>サンショウ</t>
@@ -2610,19 +2606,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>データベースの接続情報が表示される。</t>
-    <rPh sb="7" eb="9">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CSVファイルを読み込み、KENPO31.csvを生成する。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2843,6 +2826,66 @@
     <rPh sb="7" eb="9">
       <t>セイセイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モーダル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>接続確認</t>
+    <rPh sb="0" eb="2">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>接続確認モーダルが表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はい/いいえ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はい：データベースの接続情報が表示される/いいえ：モーダルがクローズする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン（モーダル）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル情報画面に遷移する</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KENPO31.csvの出力先ディレクトリを選択してください</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3249,7 +3292,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3621,6 +3664,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3700,14 +3746,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>117099</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>102344</xdr:rowOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>102345</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3732,6 +3778,104 @@
         <a:xfrm>
           <a:off x="1014139" y="13923480"/>
           <a:ext cx="7625451" cy="5219560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>11133</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>246558</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>179417</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A12F3AA-79C7-42B6-AAE0-7F6D7CE481B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1014140" y="9747800"/>
+          <a:ext cx="3009854" cy="2261691"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>376813</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>209340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>7305</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>107740</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74BAE78C-4FB1-566E-3466-F49E5A2DCF08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1000183" y="9946007"/>
+          <a:ext cx="8087854" cy="6411220"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4170,7 +4314,7 @@
       </c>
       <c r="G13" s="59"/>
       <c r="H13" s="60" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I13" s="61"/>
       <c r="J13" s="61"/>
@@ -4196,12 +4340,12 @@
       <c r="J15" s="61"/>
       <c r="K15" s="62"/>
       <c r="N15" s="13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="16" spans="3:16" ht="15.45">
       <c r="N16" s="13" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="7:16" ht="15.45">
@@ -4508,7 +4652,7 @@
     </row>
     <row r="6" spans="1:63" ht="18">
       <c r="A6" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -4537,7 +4681,7 @@
     <row r="7" spans="1:63" ht="18">
       <c r="A7" s="10"/>
       <c r="B7" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -4565,7 +4709,7 @@
     <row r="8" spans="1:63" ht="18">
       <c r="A8" s="10"/>
       <c r="B8" s="8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -4593,7 +4737,7 @@
     <row r="9" spans="1:63" ht="18">
       <c r="A9" s="10"/>
       <c r="B9" s="8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -4620,7 +4764,7 @@
     </row>
     <row r="10" spans="1:63" ht="18">
       <c r="A10" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -4649,7 +4793,7 @@
     <row r="11" spans="1:63" ht="18">
       <c r="A11" s="10"/>
       <c r="B11" s="8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -4733,7 +4877,7 @@
     <row r="14" spans="1:63" ht="18">
       <c r="A14" s="10"/>
       <c r="B14" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -4760,7 +4904,7 @@
     </row>
     <row r="15" spans="1:63" ht="18">
       <c r="A15" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -4789,7 +4933,7 @@
     <row r="16" spans="1:63" ht="18">
       <c r="A16" s="10"/>
       <c r="B16" s="8" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -4816,7 +4960,7 @@
     <row r="17" spans="1:26" ht="18">
       <c r="A17" s="10"/>
       <c r="B17" s="8" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -4875,7 +5019,7 @@
     </row>
     <row r="19" spans="1:26" ht="18">
       <c r="A19" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -4931,7 +5075,7 @@
       <c r="A21" s="10"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -4958,7 +5102,7 @@
       <c r="A22" s="10"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -5411,7 +5555,7 @@
       <c r="A9" s="10"/>
       <c r="B9" s="8"/>
       <c r="D9" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="10"/>
@@ -5426,7 +5570,7 @@
       <c r="A10" s="10"/>
       <c r="B10" s="8"/>
       <c r="D10" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="10"/>
@@ -5466,12 +5610,12 @@
     </row>
     <row r="13" spans="1:63" ht="18.75" customHeight="1">
       <c r="D13" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:63" ht="18.75" customHeight="1">
       <c r="D14" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:63" ht="18.75" customHeight="1">
@@ -5481,12 +5625,12 @@
     </row>
     <row r="16" spans="1:63" ht="18.75" customHeight="1">
       <c r="D16" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="18.75" customHeight="1">
       <c r="C18" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="18.75" customHeight="1">
@@ -5965,7 +6109,7 @@
       <c r="A9" s="10"/>
       <c r="B9" s="8"/>
       <c r="D9" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="10"/>
@@ -6007,7 +6151,7 @@
       <c r="A12" s="10"/>
       <c r="B12" s="8"/>
       <c r="D12" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="10"/>
@@ -6020,7 +6164,7 @@
       <c r="A13" s="10"/>
       <c r="B13" s="8"/>
       <c r="D13" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="10"/>
@@ -6033,7 +6177,7 @@
       <c r="A14" s="10"/>
       <c r="B14" s="8"/>
       <c r="D14" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="10"/>
@@ -6134,7 +6278,7 @@
       <c r="A21" s="10"/>
       <c r="B21" s="8"/>
       <c r="D21" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="10"/>
@@ -6155,7 +6299,7 @@
     </row>
     <row r="24" spans="1:32" ht="18">
       <c r="D24" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:32" ht="18.75" customHeight="1">
@@ -8935,7 +9079,7 @@
     </row>
     <row r="86" spans="3:38" ht="18.75" customHeight="1">
       <c r="D86" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="87" spans="3:38" ht="18.75" customHeight="1">
@@ -8965,7 +9109,7 @@
     </row>
     <row r="92" spans="3:38" ht="18.75" customHeight="1">
       <c r="D92" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="94" spans="3:38" ht="18.75" customHeight="1">
@@ -8979,7 +9123,7 @@
       </c>
       <c r="E95" s="101"/>
       <c r="F95" s="101" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G95" s="101"/>
       <c r="H95" s="101"/>
@@ -9635,10 +9779,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64897AD0-A949-43FB-B054-89E2CBD47A30}">
-  <dimension ref="A1:BO97"/>
+  <dimension ref="A1:BO161"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A83" zoomScale="117" workbookViewId="0">
-      <selection activeCell="AI90" sqref="AI90"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A71" zoomScale="117" workbookViewId="0">
+      <selection activeCell="Q39" sqref="Q39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.640625" defaultRowHeight="18.75" customHeight="1"/>
@@ -9944,1081 +10088,1215 @@
         <v>226</v>
       </c>
     </row>
-    <row r="39" spans="4:38" ht="18.75" customHeight="1">
-      <c r="D39" s="101" t="s">
+    <row r="80" spans="4:4" ht="18.75" customHeight="1">
+      <c r="D80" s="8" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="100" spans="4:38" ht="18.75" customHeight="1">
+      <c r="D100" s="101" t="s">
         <v>129</v>
       </c>
-      <c r="E39" s="101"/>
-      <c r="F39" s="101" t="s">
+      <c r="E100" s="101"/>
+      <c r="F100" s="101" t="s">
+        <v>231</v>
+      </c>
+      <c r="G100" s="101"/>
+      <c r="H100" s="101"/>
+      <c r="I100" s="101"/>
+      <c r="J100" s="101"/>
+      <c r="K100" s="101"/>
+      <c r="L100" s="101"/>
+      <c r="M100" s="101"/>
+      <c r="N100" s="101"/>
+      <c r="O100" s="101"/>
+      <c r="P100" s="101"/>
+      <c r="Q100" s="101"/>
+      <c r="R100" s="101"/>
+      <c r="S100" s="101" t="s">
+        <v>230</v>
+      </c>
+      <c r="T100" s="101"/>
+      <c r="U100" s="101"/>
+      <c r="V100" s="101"/>
+      <c r="W100" s="101"/>
+      <c r="X100" s="115" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y100" s="116"/>
+      <c r="Z100" s="116"/>
+      <c r="AA100" s="116"/>
+      <c r="AB100" s="116"/>
+      <c r="AC100" s="116"/>
+      <c r="AD100" s="116"/>
+      <c r="AE100" s="116"/>
+      <c r="AF100" s="116"/>
+      <c r="AG100" s="116"/>
+      <c r="AH100" s="116"/>
+      <c r="AI100" s="116"/>
+      <c r="AJ100" s="116"/>
+      <c r="AK100" s="116"/>
+      <c r="AL100" s="117"/>
+    </row>
+    <row r="101" spans="4:38" ht="18.75" customHeight="1">
+      <c r="D101" s="109" t="s">
+        <v>267</v>
+      </c>
+      <c r="E101" s="110"/>
+      <c r="F101" s="51" t="s">
+        <v>268</v>
+      </c>
+      <c r="G101" s="52"/>
+      <c r="H101" s="52"/>
+      <c r="I101" s="52"/>
+      <c r="J101" s="52"/>
+      <c r="K101" s="52"/>
+      <c r="L101" s="52"/>
+      <c r="M101" s="52"/>
+      <c r="N101" s="52"/>
+      <c r="O101" s="52"/>
+      <c r="P101" s="52"/>
+      <c r="Q101" s="52"/>
+      <c r="R101" s="53"/>
+      <c r="S101" s="32" t="s">
         <v>232</v>
       </c>
-      <c r="G39" s="101"/>
-      <c r="H39" s="101"/>
-      <c r="I39" s="101"/>
-      <c r="J39" s="101"/>
-      <c r="K39" s="101"/>
-      <c r="L39" s="101"/>
-      <c r="M39" s="101"/>
-      <c r="N39" s="101"/>
-      <c r="O39" s="101"/>
-      <c r="P39" s="101"/>
-      <c r="Q39" s="101"/>
-      <c r="R39" s="101"/>
-      <c r="S39" s="101" t="s">
-        <v>231</v>
-      </c>
-      <c r="T39" s="101"/>
-      <c r="U39" s="101"/>
-      <c r="V39" s="101"/>
-      <c r="W39" s="101"/>
-      <c r="X39" s="115" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y39" s="116"/>
-      <c r="Z39" s="116"/>
-      <c r="AA39" s="116"/>
-      <c r="AB39" s="116"/>
-      <c r="AC39" s="116"/>
-      <c r="AD39" s="116"/>
-      <c r="AE39" s="116"/>
-      <c r="AF39" s="116"/>
-      <c r="AG39" s="116"/>
-      <c r="AH39" s="116"/>
-      <c r="AI39" s="116"/>
-      <c r="AJ39" s="116"/>
-      <c r="AK39" s="116"/>
-      <c r="AL39" s="117"/>
-    </row>
-    <row r="40" spans="4:38" ht="18.75" customHeight="1">
-      <c r="D40" s="109" t="s">
-        <v>268</v>
-      </c>
-      <c r="E40" s="110"/>
-      <c r="F40" s="51" t="s">
+      <c r="T101" s="33"/>
+      <c r="U101" s="33"/>
+      <c r="V101" s="33"/>
+      <c r="W101" s="34"/>
+      <c r="X101" s="52" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y101" s="52"/>
+      <c r="Z101" s="52"/>
+      <c r="AA101" s="52"/>
+      <c r="AB101" s="52"/>
+      <c r="AC101" s="52"/>
+      <c r="AD101" s="52"/>
+      <c r="AE101" s="52"/>
+      <c r="AF101" s="52"/>
+      <c r="AG101" s="52"/>
+      <c r="AH101" s="52"/>
+      <c r="AI101" s="52"/>
+      <c r="AJ101" s="52"/>
+      <c r="AK101" s="52"/>
+      <c r="AL101" s="53"/>
+    </row>
+    <row r="102" spans="4:38" ht="18.75" customHeight="1">
+      <c r="D102" s="105" t="s">
         <v>269</v>
       </c>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="52"/>
-      <c r="M40" s="52"/>
-      <c r="N40" s="52"/>
-      <c r="O40" s="52"/>
-      <c r="P40" s="52"/>
-      <c r="Q40" s="52"/>
-      <c r="R40" s="53"/>
-      <c r="S40" s="32" t="s">
+      <c r="E102" s="105"/>
+      <c r="F102" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="G102" s="31"/>
+      <c r="H102" s="29"/>
+      <c r="I102" s="29"/>
+      <c r="J102" s="29"/>
+      <c r="K102" s="29"/>
+      <c r="L102" s="29"/>
+      <c r="M102" s="31"/>
+      <c r="N102" s="29"/>
+      <c r="O102" s="29"/>
+      <c r="P102" s="29"/>
+      <c r="Q102" s="29"/>
+      <c r="R102" s="43"/>
+      <c r="S102" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="X102" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y102" s="29"/>
+      <c r="Z102" s="29"/>
+      <c r="AA102" s="29"/>
+      <c r="AB102" s="29"/>
+      <c r="AC102" s="29"/>
+      <c r="AD102" s="29"/>
+      <c r="AE102" s="29"/>
+      <c r="AF102" s="29"/>
+      <c r="AG102" s="29"/>
+      <c r="AH102" s="29"/>
+      <c r="AI102" s="29"/>
+      <c r="AJ102" s="29"/>
+      <c r="AK102" s="29"/>
+      <c r="AL102" s="30"/>
+    </row>
+    <row r="103" spans="4:38" ht="18.75" customHeight="1">
+      <c r="D103" s="105" t="s">
+        <v>250</v>
+      </c>
+      <c r="E103" s="105"/>
+      <c r="F103" s="118" t="s">
+        <v>326</v>
+      </c>
+      <c r="G103" s="119"/>
+      <c r="H103" s="119"/>
+      <c r="I103" s="119"/>
+      <c r="J103" s="119"/>
+      <c r="K103" s="119"/>
+      <c r="L103" s="119"/>
+      <c r="M103" s="119"/>
+      <c r="N103" s="119"/>
+      <c r="O103" s="119"/>
+      <c r="P103" s="119"/>
+      <c r="Q103" s="119"/>
+      <c r="R103" s="120"/>
+      <c r="S103" s="50" t="s">
+        <v>248</v>
+      </c>
+      <c r="T103" s="4"/>
+      <c r="U103" s="4"/>
+      <c r="V103" s="4"/>
+      <c r="W103" s="44"/>
+      <c r="X103" s="118" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y103" s="119"/>
+      <c r="Z103" s="119"/>
+      <c r="AA103" s="119"/>
+      <c r="AB103" s="119"/>
+      <c r="AC103" s="119"/>
+      <c r="AD103" s="119"/>
+      <c r="AE103" s="119"/>
+      <c r="AF103" s="119"/>
+      <c r="AG103" s="119"/>
+      <c r="AH103" s="119"/>
+      <c r="AI103" s="119"/>
+      <c r="AJ103" s="119"/>
+      <c r="AK103" s="119"/>
+      <c r="AL103" s="120"/>
+    </row>
+    <row r="104" spans="4:38" ht="18.75" customHeight="1">
+      <c r="D104" s="105"/>
+      <c r="E104" s="105"/>
+      <c r="F104" s="121"/>
+      <c r="G104" s="122"/>
+      <c r="H104" s="122"/>
+      <c r="I104" s="122"/>
+      <c r="J104" s="122"/>
+      <c r="K104" s="122"/>
+      <c r="L104" s="122"/>
+      <c r="M104" s="122"/>
+      <c r="N104" s="122"/>
+      <c r="O104" s="122"/>
+      <c r="P104" s="122"/>
+      <c r="Q104" s="122"/>
+      <c r="R104" s="123"/>
+      <c r="S104" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="T104" s="33"/>
+      <c r="U104" s="33"/>
+      <c r="V104" s="33"/>
+      <c r="W104" s="34"/>
+      <c r="X104" s="121"/>
+      <c r="Y104" s="122"/>
+      <c r="Z104" s="122"/>
+      <c r="AA104" s="122"/>
+      <c r="AB104" s="122"/>
+      <c r="AC104" s="122"/>
+      <c r="AD104" s="122"/>
+      <c r="AE104" s="122"/>
+      <c r="AF104" s="122"/>
+      <c r="AG104" s="122"/>
+      <c r="AH104" s="122"/>
+      <c r="AI104" s="122"/>
+      <c r="AJ104" s="122"/>
+      <c r="AK104" s="122"/>
+      <c r="AL104" s="123"/>
+    </row>
+    <row r="105" spans="4:38" ht="18.75" customHeight="1">
+      <c r="D105" s="48"/>
+      <c r="E105" s="48"/>
+      <c r="F105" s="51"/>
+      <c r="G105" s="52"/>
+      <c r="H105" s="52"/>
+      <c r="I105" s="52"/>
+      <c r="J105" s="52"/>
+      <c r="K105" s="52"/>
+      <c r="L105" s="52"/>
+      <c r="M105" s="52"/>
+      <c r="N105" s="52"/>
+      <c r="O105" s="52"/>
+      <c r="P105" s="52"/>
+      <c r="Q105" s="52"/>
+      <c r="R105" s="53"/>
+      <c r="S105" s="32"/>
+      <c r="T105" s="33"/>
+      <c r="U105" s="33"/>
+      <c r="V105" s="33"/>
+      <c r="W105" s="34"/>
+      <c r="X105" s="52"/>
+      <c r="Y105" s="52"/>
+      <c r="Z105" s="52"/>
+      <c r="AA105" s="52"/>
+      <c r="AB105" s="52"/>
+      <c r="AC105" s="52"/>
+      <c r="AD105" s="52"/>
+      <c r="AE105" s="52"/>
+      <c r="AF105" s="52"/>
+      <c r="AG105" s="52"/>
+      <c r="AH105" s="52"/>
+      <c r="AI105" s="52"/>
+      <c r="AJ105" s="52"/>
+      <c r="AK105" s="52"/>
+      <c r="AL105" s="53"/>
+    </row>
+    <row r="106" spans="4:38" ht="18.75" customHeight="1">
+      <c r="D106" s="105" t="s">
+        <v>251</v>
+      </c>
+      <c r="E106" s="105"/>
+      <c r="F106" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="G106" s="31"/>
+      <c r="H106" s="29"/>
+      <c r="I106" s="29"/>
+      <c r="J106" s="29"/>
+      <c r="K106" s="29"/>
+      <c r="L106" s="29"/>
+      <c r="M106" s="31"/>
+      <c r="N106" s="29"/>
+      <c r="O106" s="29"/>
+      <c r="P106" s="29"/>
+      <c r="Q106" s="29"/>
+      <c r="R106" s="43"/>
+      <c r="S106" s="28" t="s">
         <v>233</v>
       </c>
-      <c r="T40" s="33"/>
-      <c r="U40" s="33"/>
-      <c r="V40" s="33"/>
-      <c r="W40" s="34"/>
-      <c r="X40" s="52" t="s">
+      <c r="T106" s="29"/>
+      <c r="U106" s="29"/>
+      <c r="V106" s="29"/>
+      <c r="W106" s="30"/>
+      <c r="X106" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y106" s="29"/>
+      <c r="Z106" s="29"/>
+      <c r="AA106" s="29"/>
+      <c r="AB106" s="29"/>
+      <c r="AC106" s="29"/>
+      <c r="AD106" s="29"/>
+      <c r="AE106" s="29"/>
+      <c r="AF106" s="29"/>
+      <c r="AG106" s="29"/>
+      <c r="AH106" s="29"/>
+      <c r="AI106" s="29"/>
+      <c r="AJ106" s="29"/>
+      <c r="AK106" s="29"/>
+      <c r="AL106" s="30"/>
+    </row>
+    <row r="107" spans="4:38" ht="18.75" customHeight="1">
+      <c r="D107" s="105" t="s">
+        <v>270</v>
+      </c>
+      <c r="E107" s="105"/>
+      <c r="F107" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="G107" s="31"/>
+      <c r="H107" s="29"/>
+      <c r="I107" s="29"/>
+      <c r="J107" s="29"/>
+      <c r="K107" s="29"/>
+      <c r="L107" s="29"/>
+      <c r="M107" s="31"/>
+      <c r="N107" s="29"/>
+      <c r="O107" s="29"/>
+      <c r="P107" s="29"/>
+      <c r="Q107" s="29"/>
+      <c r="R107" s="43"/>
+      <c r="S107" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="T107" s="29"/>
+      <c r="U107" s="29"/>
+      <c r="V107" s="29"/>
+      <c r="W107" s="30"/>
+      <c r="X107" s="29"/>
+      <c r="Y107" s="29"/>
+      <c r="Z107" s="29"/>
+      <c r="AA107" s="29"/>
+      <c r="AB107" s="29"/>
+      <c r="AC107" s="29"/>
+      <c r="AD107" s="29"/>
+      <c r="AE107" s="29"/>
+      <c r="AF107" s="29"/>
+      <c r="AG107" s="29"/>
+      <c r="AH107" s="29"/>
+      <c r="AI107" s="29"/>
+      <c r="AJ107" s="29"/>
+      <c r="AK107" s="29"/>
+      <c r="AL107" s="30"/>
+    </row>
+    <row r="108" spans="4:38" ht="18.75" customHeight="1">
+      <c r="D108" s="105" t="s">
+        <v>271</v>
+      </c>
+      <c r="E108" s="105"/>
+      <c r="F108" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="G108" s="31"/>
+      <c r="H108" s="29"/>
+      <c r="I108" s="29"/>
+      <c r="J108" s="29"/>
+      <c r="K108" s="29"/>
+      <c r="L108" s="29"/>
+      <c r="M108" s="31"/>
+      <c r="N108" s="29"/>
+      <c r="O108" s="29"/>
+      <c r="P108" s="29"/>
+      <c r="Q108" s="29"/>
+      <c r="R108" s="43"/>
+      <c r="S108" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="T108" s="29"/>
+      <c r="U108" s="29"/>
+      <c r="V108" s="29"/>
+      <c r="W108" s="30"/>
+      <c r="X108" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y108" s="29"/>
+      <c r="Z108" s="29"/>
+      <c r="AA108" s="29"/>
+      <c r="AB108" s="29"/>
+      <c r="AC108" s="29"/>
+      <c r="AD108" s="29"/>
+      <c r="AE108" s="29"/>
+      <c r="AF108" s="29"/>
+      <c r="AG108" s="29"/>
+      <c r="AH108" s="29"/>
+      <c r="AI108" s="29"/>
+      <c r="AJ108" s="29"/>
+      <c r="AK108" s="29"/>
+      <c r="AL108" s="30"/>
+    </row>
+    <row r="109" spans="4:38" ht="18.75" customHeight="1">
+      <c r="D109" s="105" t="s">
+        <v>252</v>
+      </c>
+      <c r="E109" s="105"/>
+      <c r="F109" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G109" s="31"/>
+      <c r="H109" s="29"/>
+      <c r="I109" s="29"/>
+      <c r="J109" s="29"/>
+      <c r="K109" s="29"/>
+      <c r="L109" s="29"/>
+      <c r="M109" s="31"/>
+      <c r="N109" s="29"/>
+      <c r="O109" s="29"/>
+      <c r="P109" s="29"/>
+      <c r="Q109" s="29"/>
+      <c r="R109" s="43"/>
+      <c r="S109" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="T109" s="29"/>
+      <c r="U109" s="29"/>
+      <c r="V109" s="29"/>
+      <c r="W109" s="30"/>
+      <c r="X109" s="29"/>
+      <c r="Y109" s="29"/>
+      <c r="Z109" s="29"/>
+      <c r="AA109" s="29"/>
+      <c r="AB109" s="29"/>
+      <c r="AC109" s="29"/>
+      <c r="AD109" s="29"/>
+      <c r="AE109" s="29"/>
+      <c r="AF109" s="29"/>
+      <c r="AG109" s="29"/>
+      <c r="AH109" s="29"/>
+      <c r="AI109" s="29"/>
+      <c r="AJ109" s="29"/>
+      <c r="AK109" s="29"/>
+      <c r="AL109" s="30"/>
+    </row>
+    <row r="110" spans="4:38" ht="18.75" customHeight="1">
+      <c r="D110" s="105" t="s">
+        <v>255</v>
+      </c>
+      <c r="E110" s="105"/>
+      <c r="F110" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="G110" s="31"/>
+      <c r="H110" s="29"/>
+      <c r="I110" s="29"/>
+      <c r="J110" s="29"/>
+      <c r="K110" s="29"/>
+      <c r="L110" s="29"/>
+      <c r="M110" s="31"/>
+      <c r="N110" s="29"/>
+      <c r="O110" s="29"/>
+      <c r="P110" s="29"/>
+      <c r="Q110" s="29"/>
+      <c r="R110" s="43"/>
+      <c r="S110" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="T110" s="29"/>
+      <c r="U110" s="29"/>
+      <c r="V110" s="29"/>
+      <c r="W110" s="30"/>
+      <c r="X110" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y110" s="29"/>
+      <c r="Z110" s="29"/>
+      <c r="AA110" s="29"/>
+      <c r="AB110" s="29"/>
+      <c r="AC110" s="29"/>
+      <c r="AD110" s="29"/>
+      <c r="AE110" s="29"/>
+      <c r="AF110" s="29"/>
+      <c r="AG110" s="29"/>
+      <c r="AH110" s="29"/>
+      <c r="AI110" s="29"/>
+      <c r="AJ110" s="29"/>
+      <c r="AK110" s="29"/>
+      <c r="AL110" s="30"/>
+    </row>
+    <row r="111" spans="4:38" ht="18.75" customHeight="1">
+      <c r="D111" s="105" t="s">
+        <v>257</v>
+      </c>
+      <c r="E111" s="105"/>
+      <c r="F111" s="54" t="s">
+        <v>258</v>
+      </c>
+      <c r="R111" s="47"/>
+      <c r="S111" s="54" t="s">
+        <v>233</v>
+      </c>
+      <c r="W111" s="45"/>
+      <c r="X111" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="AL111" s="45"/>
+    </row>
+    <row r="112" spans="4:38" ht="18.75" customHeight="1">
+      <c r="D112" s="105" t="s">
+        <v>272</v>
+      </c>
+      <c r="E112" s="105"/>
+      <c r="F112" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="G112" s="31"/>
+      <c r="H112" s="29"/>
+      <c r="I112" s="29"/>
+      <c r="J112" s="29"/>
+      <c r="K112" s="29"/>
+      <c r="L112" s="29"/>
+      <c r="M112" s="31"/>
+      <c r="N112" s="29"/>
+      <c r="O112" s="29"/>
+      <c r="P112" s="29"/>
+      <c r="Q112" s="29"/>
+      <c r="R112" s="43"/>
+      <c r="S112" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="T112" s="29"/>
+      <c r="U112" s="29"/>
+      <c r="V112" s="29"/>
+      <c r="W112" s="30"/>
+      <c r="X112" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y112" s="29"/>
+      <c r="Z112" s="29"/>
+      <c r="AA112" s="29"/>
+      <c r="AB112" s="29"/>
+      <c r="AC112" s="29"/>
+      <c r="AD112" s="29"/>
+      <c r="AE112" s="29"/>
+      <c r="AF112" s="29"/>
+      <c r="AG112" s="29"/>
+      <c r="AH112" s="29"/>
+      <c r="AI112" s="29"/>
+      <c r="AJ112" s="29"/>
+      <c r="AK112" s="29"/>
+      <c r="AL112" s="30"/>
+    </row>
+    <row r="113" spans="4:38" ht="18.75" customHeight="1">
+      <c r="D113" s="105" t="s">
+        <v>260</v>
+      </c>
+      <c r="E113" s="105"/>
+      <c r="F113" s="28" t="s">
         <v>330</v>
       </c>
-      <c r="Y40" s="52"/>
-      <c r="Z40" s="52"/>
-      <c r="AA40" s="52"/>
-      <c r="AB40" s="52"/>
-      <c r="AC40" s="52"/>
-      <c r="AD40" s="52"/>
-      <c r="AE40" s="52"/>
-      <c r="AF40" s="52"/>
-      <c r="AG40" s="52"/>
-      <c r="AH40" s="52"/>
-      <c r="AI40" s="52"/>
-      <c r="AJ40" s="52"/>
-      <c r="AK40" s="52"/>
-      <c r="AL40" s="53"/>
-    </row>
-    <row r="41" spans="4:38" ht="18.75" customHeight="1">
-      <c r="D41" s="105" t="s">
-        <v>270</v>
-      </c>
-      <c r="E41" s="105"/>
-      <c r="F41" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="G41" s="31"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="31"/>
-      <c r="N41" s="29"/>
-      <c r="O41" s="29"/>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="29"/>
-      <c r="R41" s="43"/>
-      <c r="S41" s="8" t="s">
+      <c r="G113" s="31"/>
+      <c r="H113" s="29"/>
+      <c r="I113" s="29"/>
+      <c r="J113" s="29"/>
+      <c r="K113" s="29"/>
+      <c r="L113" s="29"/>
+      <c r="M113" s="31"/>
+      <c r="N113" s="29"/>
+      <c r="O113" s="29"/>
+      <c r="P113" s="29"/>
+      <c r="Q113" s="29"/>
+      <c r="R113" s="43"/>
+      <c r="S113" s="28" t="s">
+        <v>329</v>
+      </c>
+      <c r="T113" s="29"/>
+      <c r="U113" s="29"/>
+      <c r="V113" s="29"/>
+      <c r="W113" s="30"/>
+      <c r="X113" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y113" s="29"/>
+      <c r="Z113" s="29"/>
+      <c r="AA113" s="29"/>
+      <c r="AB113" s="29"/>
+      <c r="AC113" s="29"/>
+      <c r="AD113" s="29"/>
+      <c r="AE113" s="29"/>
+      <c r="AF113" s="29"/>
+      <c r="AG113" s="29"/>
+      <c r="AH113" s="29"/>
+      <c r="AI113" s="29"/>
+      <c r="AJ113" s="29"/>
+      <c r="AK113" s="29"/>
+      <c r="AL113" s="30"/>
+    </row>
+    <row r="114" spans="4:38" ht="18.75" customHeight="1">
+      <c r="D114" s="105" t="s">
+        <v>260</v>
+      </c>
+      <c r="E114" s="105"/>
+      <c r="F114" s="28" t="s">
+        <v>332</v>
+      </c>
+      <c r="G114" s="31"/>
+      <c r="H114" s="29"/>
+      <c r="I114" s="29"/>
+      <c r="J114" s="29"/>
+      <c r="K114" s="29"/>
+      <c r="L114" s="29"/>
+      <c r="M114" s="31"/>
+      <c r="N114" s="29"/>
+      <c r="O114" s="29"/>
+      <c r="P114" s="29"/>
+      <c r="Q114" s="29"/>
+      <c r="R114" s="43"/>
+      <c r="S114" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="T114" s="29"/>
+      <c r="U114" s="29"/>
+      <c r="V114" s="29"/>
+      <c r="W114" s="30"/>
+      <c r="X114" s="28" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y114" s="29"/>
+      <c r="Z114" s="29"/>
+      <c r="AA114" s="29"/>
+      <c r="AB114" s="29"/>
+      <c r="AC114" s="29"/>
+      <c r="AD114" s="29"/>
+      <c r="AE114" s="29"/>
+      <c r="AF114" s="29"/>
+      <c r="AG114" s="29"/>
+      <c r="AH114" s="29"/>
+      <c r="AI114" s="29"/>
+      <c r="AJ114" s="29"/>
+      <c r="AK114" s="29"/>
+      <c r="AL114" s="30"/>
+    </row>
+    <row r="115" spans="4:38" ht="18.75" customHeight="1">
+      <c r="D115" s="124" t="s">
+        <v>260</v>
+      </c>
+      <c r="E115" s="124"/>
+      <c r="F115" s="54" t="s">
+        <v>259</v>
+      </c>
+      <c r="R115" s="47"/>
+      <c r="S115" s="54" t="s">
         <v>233</v>
       </c>
-      <c r="X41" s="28" t="s">
-        <v>267</v>
-      </c>
-      <c r="Y41" s="29"/>
-      <c r="Z41" s="29"/>
-      <c r="AA41" s="29"/>
-      <c r="AB41" s="29"/>
-      <c r="AC41" s="29"/>
-      <c r="AD41" s="29"/>
-      <c r="AE41" s="29"/>
-      <c r="AF41" s="29"/>
-      <c r="AG41" s="29"/>
-      <c r="AH41" s="29"/>
-      <c r="AI41" s="29"/>
-      <c r="AJ41" s="29"/>
-      <c r="AK41" s="29"/>
-      <c r="AL41" s="30"/>
-    </row>
-    <row r="42" spans="4:38" ht="18.75" customHeight="1">
-      <c r="D42" s="105" t="s">
-        <v>251</v>
-      </c>
-      <c r="E42" s="105"/>
-      <c r="F42" s="118" t="s">
-        <v>328</v>
-      </c>
-      <c r="G42" s="119"/>
-      <c r="H42" s="119"/>
-      <c r="I42" s="119"/>
-      <c r="J42" s="119"/>
-      <c r="K42" s="119"/>
-      <c r="L42" s="119"/>
-      <c r="M42" s="119"/>
-      <c r="N42" s="119"/>
-      <c r="O42" s="119"/>
-      <c r="P42" s="119"/>
-      <c r="Q42" s="119"/>
-      <c r="R42" s="120"/>
-      <c r="S42" s="50" t="s">
+      <c r="W115" s="45"/>
+      <c r="X115" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y115" s="29"/>
+      <c r="Z115" s="29"/>
+      <c r="AA115" s="29"/>
+      <c r="AB115" s="29"/>
+      <c r="AC115" s="29"/>
+      <c r="AD115" s="29"/>
+      <c r="AE115" s="29"/>
+      <c r="AF115" s="29"/>
+      <c r="AG115" s="29"/>
+      <c r="AH115" s="29"/>
+      <c r="AI115" s="29"/>
+      <c r="AJ115" s="29"/>
+      <c r="AK115" s="29"/>
+      <c r="AL115" s="30"/>
+    </row>
+    <row r="116" spans="4:38" ht="18.75" customHeight="1">
+      <c r="D116" s="105" t="s">
+        <v>273</v>
+      </c>
+      <c r="E116" s="105"/>
+      <c r="F116" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="G116" s="31"/>
+      <c r="H116" s="29"/>
+      <c r="I116" s="29"/>
+      <c r="J116" s="29"/>
+      <c r="K116" s="29"/>
+      <c r="L116" s="29"/>
+      <c r="M116" s="31"/>
+      <c r="N116" s="29"/>
+      <c r="O116" s="29"/>
+      <c r="P116" s="29"/>
+      <c r="Q116" s="29"/>
+      <c r="R116" s="43"/>
+      <c r="S116" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="T116" s="29"/>
+      <c r="U116" s="29"/>
+      <c r="V116" s="29"/>
+      <c r="W116" s="30"/>
+      <c r="X116" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y116" s="29"/>
+      <c r="Z116" s="29"/>
+      <c r="AA116" s="29"/>
+      <c r="AB116" s="29"/>
+      <c r="AC116" s="29"/>
+      <c r="AD116" s="29"/>
+      <c r="AE116" s="29"/>
+      <c r="AF116" s="29"/>
+      <c r="AG116" s="29"/>
+      <c r="AH116" s="29"/>
+      <c r="AI116" s="29"/>
+      <c r="AJ116" s="29"/>
+      <c r="AK116" s="29"/>
+      <c r="AL116" s="30"/>
+    </row>
+    <row r="120" spans="4:38" ht="18.75" customHeight="1">
+      <c r="D120" s="9" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="121" spans="4:38" ht="18.75" customHeight="1">
+      <c r="D121" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="E121" s="9"/>
+    </row>
+    <row r="149" spans="4:31" ht="18.75" customHeight="1">
+      <c r="D149" s="115" t="s">
+        <v>129</v>
+      </c>
+      <c r="E149" s="117"/>
+      <c r="F149" s="115" t="s">
+        <v>306</v>
+      </c>
+      <c r="G149" s="116"/>
+      <c r="H149" s="116"/>
+      <c r="I149" s="117"/>
+      <c r="J149" s="116" t="s">
+        <v>291</v>
+      </c>
+      <c r="K149" s="116"/>
+      <c r="L149" s="116"/>
+      <c r="M149" s="116"/>
+      <c r="N149" s="117"/>
+      <c r="O149" s="115" t="s">
+        <v>292</v>
+      </c>
+      <c r="P149" s="116"/>
+      <c r="Q149" s="116"/>
+      <c r="R149" s="116"/>
+      <c r="S149" s="116"/>
+      <c r="T149" s="116"/>
+      <c r="U149" s="116"/>
+      <c r="V149" s="116"/>
+      <c r="W149" s="116"/>
+      <c r="X149" s="116"/>
+      <c r="Y149" s="116"/>
+      <c r="Z149" s="116"/>
+      <c r="AA149" s="116"/>
+      <c r="AB149" s="116"/>
+      <c r="AC149" s="116"/>
+      <c r="AD149" s="116"/>
+      <c r="AE149" s="117"/>
+    </row>
+    <row r="150" spans="4:31" ht="18.75" customHeight="1">
+      <c r="D150" s="109" t="s">
         <v>249</v>
       </c>
-      <c r="T42" s="4"/>
-      <c r="U42" s="4"/>
-      <c r="V42" s="4"/>
-      <c r="W42" s="44"/>
-      <c r="X42" s="118" t="s">
-        <v>264</v>
-      </c>
-      <c r="Y42" s="119"/>
-      <c r="Z42" s="119"/>
-      <c r="AA42" s="119"/>
-      <c r="AB42" s="119"/>
-      <c r="AC42" s="119"/>
-      <c r="AD42" s="119"/>
-      <c r="AE42" s="119"/>
-      <c r="AF42" s="119"/>
-      <c r="AG42" s="119"/>
-      <c r="AH42" s="119"/>
-      <c r="AI42" s="119"/>
-      <c r="AJ42" s="119"/>
-      <c r="AK42" s="119"/>
-      <c r="AL42" s="120"/>
-    </row>
-    <row r="43" spans="4:38" ht="18.75" customHeight="1">
-      <c r="D43" s="105"/>
-      <c r="E43" s="105"/>
-      <c r="F43" s="121"/>
-      <c r="G43" s="122"/>
-      <c r="H43" s="122"/>
-      <c r="I43" s="122"/>
-      <c r="J43" s="122"/>
-      <c r="K43" s="122"/>
-      <c r="L43" s="122"/>
-      <c r="M43" s="122"/>
-      <c r="N43" s="122"/>
-      <c r="O43" s="122"/>
-      <c r="P43" s="122"/>
-      <c r="Q43" s="122"/>
-      <c r="R43" s="123"/>
-      <c r="S43" s="32" t="s">
-        <v>266</v>
-      </c>
-      <c r="T43" s="33"/>
-      <c r="U43" s="33"/>
-      <c r="V43" s="33"/>
-      <c r="W43" s="34"/>
-      <c r="X43" s="121"/>
-      <c r="Y43" s="122"/>
-      <c r="Z43" s="122"/>
-      <c r="AA43" s="122"/>
-      <c r="AB43" s="122"/>
-      <c r="AC43" s="122"/>
-      <c r="AD43" s="122"/>
-      <c r="AE43" s="122"/>
-      <c r="AF43" s="122"/>
-      <c r="AG43" s="122"/>
-      <c r="AH43" s="122"/>
-      <c r="AI43" s="122"/>
-      <c r="AJ43" s="122"/>
-      <c r="AK43" s="122"/>
-      <c r="AL43" s="123"/>
-    </row>
-    <row r="44" spans="4:38" ht="18.75" customHeight="1">
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="52"/>
-      <c r="J44" s="52"/>
-      <c r="K44" s="52"/>
-      <c r="L44" s="52"/>
-      <c r="M44" s="52"/>
-      <c r="N44" s="52"/>
-      <c r="O44" s="52"/>
-      <c r="P44" s="52"/>
-      <c r="Q44" s="52"/>
-      <c r="R44" s="53"/>
-      <c r="S44" s="32"/>
-      <c r="T44" s="33"/>
-      <c r="U44" s="33"/>
-      <c r="V44" s="33"/>
-      <c r="W44" s="34"/>
-      <c r="X44" s="52"/>
-      <c r="Y44" s="52"/>
-      <c r="Z44" s="52"/>
-      <c r="AA44" s="52"/>
-      <c r="AB44" s="52"/>
-      <c r="AC44" s="52"/>
-      <c r="AD44" s="52"/>
-      <c r="AE44" s="52"/>
-      <c r="AF44" s="52"/>
-      <c r="AG44" s="52"/>
-      <c r="AH44" s="52"/>
-      <c r="AI44" s="52"/>
-      <c r="AJ44" s="52"/>
-      <c r="AK44" s="52"/>
-      <c r="AL44" s="53"/>
-    </row>
-    <row r="45" spans="4:38" ht="18.75" customHeight="1">
-      <c r="D45" s="105" t="s">
+      <c r="E150" s="110"/>
+      <c r="F150" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="G150" s="31"/>
+      <c r="H150" s="29"/>
+      <c r="I150" s="29"/>
+      <c r="J150" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="K150" s="29"/>
+      <c r="L150" s="29"/>
+      <c r="M150" s="31"/>
+      <c r="N150" s="30"/>
+      <c r="O150" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="P150" s="29"/>
+      <c r="Q150" s="29"/>
+      <c r="R150" s="31"/>
+      <c r="S150" s="29"/>
+      <c r="T150" s="29"/>
+      <c r="U150" s="29"/>
+      <c r="V150" s="29"/>
+      <c r="W150" s="29"/>
+      <c r="X150" s="29"/>
+      <c r="Y150" s="29"/>
+      <c r="Z150" s="29"/>
+      <c r="AA150" s="29"/>
+      <c r="AB150" s="29"/>
+      <c r="AC150" s="29"/>
+      <c r="AD150" s="29"/>
+      <c r="AE150" s="30"/>
+    </row>
+    <row r="151" spans="4:31" ht="18.75" customHeight="1">
+      <c r="D151" s="109" t="s">
+        <v>269</v>
+      </c>
+      <c r="E151" s="110"/>
+      <c r="F151" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="G151" s="31"/>
+      <c r="H151" s="29"/>
+      <c r="I151" s="29"/>
+      <c r="J151" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="K151" s="29"/>
+      <c r="L151" s="29"/>
+      <c r="M151" s="31"/>
+      <c r="N151" s="30"/>
+      <c r="O151" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="P151" s="29"/>
+      <c r="Q151" s="29"/>
+      <c r="R151" s="31"/>
+      <c r="S151" s="29"/>
+      <c r="T151" s="29"/>
+      <c r="U151" s="29"/>
+      <c r="V151" s="29"/>
+      <c r="W151" s="29"/>
+      <c r="X151" s="29"/>
+      <c r="Y151" s="29"/>
+      <c r="Z151" s="29"/>
+      <c r="AA151" s="29"/>
+      <c r="AB151" s="29"/>
+      <c r="AC151" s="29"/>
+      <c r="AD151" s="29"/>
+      <c r="AE151" s="30"/>
+    </row>
+    <row r="152" spans="4:31" ht="18.75" customHeight="1">
+      <c r="D152" s="102" t="s">
+        <v>276</v>
+      </c>
+      <c r="E152" s="103"/>
+      <c r="F152" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="G152" s="5"/>
+      <c r="H152" s="4"/>
+      <c r="I152" s="4"/>
+      <c r="J152" s="50" t="s">
+        <v>248</v>
+      </c>
+      <c r="K152" s="4"/>
+      <c r="L152" s="4"/>
+      <c r="M152" s="5"/>
+      <c r="N152" s="44"/>
+      <c r="O152" s="50" t="s">
+        <v>293</v>
+      </c>
+      <c r="P152" s="4"/>
+      <c r="Q152" s="4"/>
+      <c r="R152" s="5"/>
+      <c r="S152" s="4"/>
+      <c r="T152" s="4"/>
+      <c r="U152" s="4"/>
+      <c r="V152" s="4"/>
+      <c r="W152" s="4"/>
+      <c r="X152" s="4"/>
+      <c r="Y152" s="4"/>
+      <c r="Z152" s="4"/>
+      <c r="AA152" s="4"/>
+      <c r="AB152" s="4"/>
+      <c r="AC152" s="4"/>
+      <c r="AD152" s="4"/>
+      <c r="AE152" s="44"/>
+    </row>
+    <row r="153" spans="4:31" ht="18.75" customHeight="1">
+      <c r="D153" s="97" t="s">
+        <v>278</v>
+      </c>
+      <c r="E153" s="98"/>
+      <c r="F153" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="G153" s="49"/>
+      <c r="H153" s="4"/>
+      <c r="I153" s="4"/>
+      <c r="J153" s="50" t="s">
+        <v>232</v>
+      </c>
+      <c r="K153" s="4"/>
+      <c r="L153" s="4"/>
+      <c r="M153" s="5"/>
+      <c r="N153" s="44"/>
+      <c r="O153" s="50" t="s">
+        <v>300</v>
+      </c>
+      <c r="P153" s="4"/>
+      <c r="Q153" s="4"/>
+      <c r="R153" s="5"/>
+      <c r="S153" s="4"/>
+      <c r="T153" s="4"/>
+      <c r="U153" s="4"/>
+      <c r="V153" s="4"/>
+      <c r="W153" s="4"/>
+      <c r="X153" s="4"/>
+      <c r="Y153" s="4"/>
+      <c r="Z153" s="4"/>
+      <c r="AA153" s="4"/>
+      <c r="AB153" s="4"/>
+      <c r="AC153" s="4"/>
+      <c r="AD153" s="4"/>
+      <c r="AE153" s="44"/>
+    </row>
+    <row r="154" spans="4:31" ht="18.75" customHeight="1">
+      <c r="D154" s="97" t="s">
+        <v>280</v>
+      </c>
+      <c r="E154" s="98"/>
+      <c r="F154" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="G154" s="31"/>
+      <c r="H154" s="29"/>
+      <c r="I154" s="29"/>
+      <c r="J154" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="K154" s="29"/>
+      <c r="L154" s="29"/>
+      <c r="M154" s="31"/>
+      <c r="N154" s="30"/>
+      <c r="O154" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="P154" s="29"/>
+      <c r="Q154" s="29"/>
+      <c r="R154" s="31"/>
+      <c r="S154" s="29"/>
+      <c r="T154" s="29"/>
+      <c r="U154" s="29"/>
+      <c r="V154" s="29"/>
+      <c r="W154" s="29"/>
+      <c r="X154" s="29"/>
+      <c r="Y154" s="29"/>
+      <c r="Z154" s="29"/>
+      <c r="AA154" s="29"/>
+      <c r="AB154" s="29"/>
+      <c r="AC154" s="29"/>
+      <c r="AD154" s="29"/>
+      <c r="AE154" s="30"/>
+    </row>
+    <row r="155" spans="4:31" ht="18.75" customHeight="1">
+      <c r="D155" s="97" t="s">
+        <v>271</v>
+      </c>
+      <c r="E155" s="98"/>
+      <c r="F155" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="G155" s="31"/>
+      <c r="H155" s="29"/>
+      <c r="I155" s="29"/>
+      <c r="J155" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="K155" s="29"/>
+      <c r="L155" s="29"/>
+      <c r="M155" s="31"/>
+      <c r="N155" s="30"/>
+      <c r="O155" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="P155" s="29"/>
+      <c r="Q155" s="29"/>
+      <c r="R155" s="31"/>
+      <c r="S155" s="29"/>
+      <c r="T155" s="29"/>
+      <c r="U155" s="29"/>
+      <c r="V155" s="29"/>
+      <c r="W155" s="29"/>
+      <c r="X155" s="29"/>
+      <c r="Y155" s="29"/>
+      <c r="Z155" s="29"/>
+      <c r="AA155" s="29"/>
+      <c r="AB155" s="29"/>
+      <c r="AC155" s="29"/>
+      <c r="AD155" s="29"/>
+      <c r="AE155" s="30"/>
+    </row>
+    <row r="156" spans="4:31" ht="18.75" customHeight="1">
+      <c r="D156" s="97" t="s">
+        <v>283</v>
+      </c>
+      <c r="E156" s="98"/>
+      <c r="F156" s="28" t="s">
+        <v>285</v>
+      </c>
+      <c r="G156" s="31"/>
+      <c r="H156" s="29"/>
+      <c r="I156" s="29"/>
+      <c r="J156" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="K156" s="29"/>
+      <c r="L156" s="29"/>
+      <c r="M156" s="31"/>
+      <c r="N156" s="30"/>
+      <c r="O156" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="P156" s="29"/>
+      <c r="Q156" s="29"/>
+      <c r="R156" s="31"/>
+      <c r="S156" s="29"/>
+      <c r="T156" s="29"/>
+      <c r="U156" s="29"/>
+      <c r="V156" s="29"/>
+      <c r="W156" s="29"/>
+      <c r="X156" s="29"/>
+      <c r="Y156" s="29"/>
+      <c r="Z156" s="29"/>
+      <c r="AA156" s="29"/>
+      <c r="AB156" s="29"/>
+      <c r="AC156" s="29"/>
+      <c r="AD156" s="29"/>
+      <c r="AE156" s="30"/>
+    </row>
+    <row r="157" spans="4:31" ht="18.75" customHeight="1">
+      <c r="D157" s="97" t="s">
+        <v>284</v>
+      </c>
+      <c r="E157" s="98"/>
+      <c r="F157" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="J157" s="54" t="s">
+        <v>232</v>
+      </c>
+      <c r="N157" s="45"/>
+      <c r="O157" s="54" t="s">
+        <v>290</v>
+      </c>
+      <c r="AE157" s="45"/>
+    </row>
+    <row r="158" spans="4:31" ht="18.75" customHeight="1">
+      <c r="D158" s="97" t="s">
         <v>252</v>
       </c>
-      <c r="E45" s="105"/>
-      <c r="F45" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="G45" s="31"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="29"/>
-      <c r="M45" s="31"/>
-      <c r="N45" s="29"/>
-      <c r="O45" s="29"/>
-      <c r="P45" s="29"/>
-      <c r="Q45" s="29"/>
-      <c r="R45" s="43"/>
-      <c r="S45" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="T45" s="29"/>
-      <c r="U45" s="29"/>
-      <c r="V45" s="29"/>
-      <c r="W45" s="30"/>
-      <c r="X45" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="Y45" s="29"/>
-      <c r="Z45" s="29"/>
-      <c r="AA45" s="29"/>
-      <c r="AB45" s="29"/>
-      <c r="AC45" s="29"/>
-      <c r="AD45" s="29"/>
-      <c r="AE45" s="29"/>
-      <c r="AF45" s="29"/>
-      <c r="AG45" s="29"/>
-      <c r="AH45" s="29"/>
-      <c r="AI45" s="29"/>
-      <c r="AJ45" s="29"/>
-      <c r="AK45" s="29"/>
-      <c r="AL45" s="30"/>
-    </row>
-    <row r="46" spans="4:38" ht="18.75" customHeight="1">
-      <c r="D46" s="105" t="s">
-        <v>271</v>
-      </c>
-      <c r="E46" s="105"/>
-      <c r="F46" s="28" t="s">
-        <v>230</v>
-      </c>
-      <c r="G46" s="31"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="29"/>
-      <c r="L46" s="29"/>
-      <c r="M46" s="31"/>
-      <c r="N46" s="29"/>
-      <c r="O46" s="29"/>
-      <c r="P46" s="29"/>
-      <c r="Q46" s="29"/>
-      <c r="R46" s="43"/>
-      <c r="S46" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="T46" s="29"/>
-      <c r="U46" s="29"/>
-      <c r="V46" s="29"/>
-      <c r="W46" s="30"/>
-      <c r="X46" s="29"/>
-      <c r="Y46" s="29"/>
-      <c r="Z46" s="29"/>
-      <c r="AA46" s="29"/>
-      <c r="AB46" s="29"/>
-      <c r="AC46" s="29"/>
-      <c r="AD46" s="29"/>
-      <c r="AE46" s="29"/>
-      <c r="AF46" s="29"/>
-      <c r="AG46" s="29"/>
-      <c r="AH46" s="29"/>
-      <c r="AI46" s="29"/>
-      <c r="AJ46" s="29"/>
-      <c r="AK46" s="29"/>
-      <c r="AL46" s="30"/>
-    </row>
-    <row r="47" spans="4:38" ht="18.75" customHeight="1">
-      <c r="D47" s="105" t="s">
-        <v>272</v>
-      </c>
-      <c r="E47" s="105"/>
-      <c r="F47" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="G47" s="31"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="29"/>
-      <c r="L47" s="29"/>
-      <c r="M47" s="31"/>
-      <c r="N47" s="29"/>
-      <c r="O47" s="29"/>
-      <c r="P47" s="29"/>
-      <c r="Q47" s="29"/>
-      <c r="R47" s="43"/>
-      <c r="S47" s="28" t="s">
+      <c r="E158" s="98"/>
+      <c r="F158" s="55" t="s">
+        <v>287</v>
+      </c>
+      <c r="G158" s="31"/>
+      <c r="H158" s="29"/>
+      <c r="I158" s="29"/>
+      <c r="J158" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="K158" s="29"/>
+      <c r="L158" s="29"/>
+      <c r="M158" s="31"/>
+      <c r="N158" s="30"/>
+      <c r="O158" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="P158" s="29"/>
+      <c r="Q158" s="29"/>
+      <c r="R158" s="31"/>
+      <c r="S158" s="29"/>
+      <c r="T158" s="29"/>
+      <c r="U158" s="29"/>
+      <c r="V158" s="29"/>
+      <c r="W158" s="29"/>
+      <c r="X158" s="29"/>
+      <c r="Y158" s="29"/>
+      <c r="Z158" s="29"/>
+      <c r="AA158" s="29"/>
+      <c r="AB158" s="29"/>
+      <c r="AC158" s="29"/>
+      <c r="AD158" s="29"/>
+      <c r="AE158" s="30"/>
+    </row>
+    <row r="159" spans="4:31" ht="18.75" customHeight="1">
+      <c r="D159" s="97" t="s">
+        <v>253</v>
+      </c>
+      <c r="E159" s="98"/>
+      <c r="F159" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="G159" s="31"/>
+      <c r="H159" s="29"/>
+      <c r="I159" s="29"/>
+      <c r="J159" s="28" t="s">
         <v>233</v>
       </c>
-      <c r="T47" s="29"/>
-      <c r="U47" s="29"/>
-      <c r="V47" s="29"/>
-      <c r="W47" s="30"/>
-      <c r="X47" s="29" t="s">
-        <v>307</v>
-      </c>
-      <c r="Y47" s="29"/>
-      <c r="Z47" s="29"/>
-      <c r="AA47" s="29"/>
-      <c r="AB47" s="29"/>
-      <c r="AC47" s="29"/>
-      <c r="AD47" s="29"/>
-      <c r="AE47" s="29"/>
-      <c r="AF47" s="29"/>
-      <c r="AG47" s="29"/>
-      <c r="AH47" s="29"/>
-      <c r="AI47" s="29"/>
-      <c r="AJ47" s="29"/>
-      <c r="AK47" s="29"/>
-      <c r="AL47" s="30"/>
-    </row>
-    <row r="48" spans="4:38" ht="18.75" customHeight="1">
-      <c r="D48" s="105" t="s">
+      <c r="K159" s="29"/>
+      <c r="L159" s="29"/>
+      <c r="M159" s="31"/>
+      <c r="N159" s="30"/>
+      <c r="O159" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="P159" s="29"/>
+      <c r="Q159" s="29"/>
+      <c r="R159" s="31"/>
+      <c r="S159" s="29"/>
+      <c r="T159" s="29"/>
+      <c r="U159" s="29"/>
+      <c r="V159" s="29"/>
+      <c r="W159" s="29"/>
+      <c r="X159" s="29"/>
+      <c r="Y159" s="29"/>
+      <c r="Z159" s="29"/>
+      <c r="AA159" s="29"/>
+      <c r="AB159" s="29"/>
+      <c r="AC159" s="29"/>
+      <c r="AD159" s="29"/>
+      <c r="AE159" s="30"/>
+    </row>
+    <row r="160" spans="4:31" ht="18.75" customHeight="1">
+      <c r="D160" s="97" t="s">
         <v>253</v>
       </c>
-      <c r="E48" s="105"/>
-      <c r="F48" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="G48" s="31"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="29"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="31"/>
-      <c r="N48" s="29"/>
-      <c r="O48" s="29"/>
-      <c r="P48" s="29"/>
-      <c r="Q48" s="29"/>
-      <c r="R48" s="43"/>
-      <c r="S48" s="28" t="s">
+      <c r="E160" s="98"/>
+      <c r="F160" s="28" t="s">
+        <v>336</v>
+      </c>
+      <c r="G160" s="31"/>
+      <c r="H160" s="29"/>
+      <c r="I160" s="29"/>
+      <c r="J160" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="K160" s="29"/>
+      <c r="L160" s="29"/>
+      <c r="M160" s="31"/>
+      <c r="N160" s="30"/>
+      <c r="O160" s="28" t="s">
+        <v>335</v>
+      </c>
+      <c r="P160" s="29"/>
+      <c r="Q160" s="29"/>
+      <c r="R160" s="31"/>
+      <c r="S160" s="29"/>
+      <c r="T160" s="29"/>
+      <c r="U160" s="29"/>
+      <c r="V160" s="29"/>
+      <c r="W160" s="29"/>
+      <c r="X160" s="29"/>
+      <c r="Y160" s="29"/>
+      <c r="Z160" s="29"/>
+      <c r="AA160" s="29"/>
+      <c r="AB160" s="29"/>
+      <c r="AC160" s="29"/>
+      <c r="AD160" s="29"/>
+      <c r="AE160" s="30"/>
+    </row>
+    <row r="161" spans="4:31" ht="18.75" customHeight="1">
+      <c r="D161" s="99" t="s">
+        <v>255</v>
+      </c>
+      <c r="E161" s="100"/>
+      <c r="F161" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="G161" s="31"/>
+      <c r="H161" s="29"/>
+      <c r="I161" s="29"/>
+      <c r="J161" s="28" t="s">
         <v>233</v>
       </c>
-      <c r="T48" s="29"/>
-      <c r="U48" s="29"/>
-      <c r="V48" s="29"/>
-      <c r="W48" s="30"/>
-      <c r="X48" s="29"/>
-      <c r="Y48" s="29"/>
-      <c r="Z48" s="29"/>
-      <c r="AA48" s="29"/>
-      <c r="AB48" s="29"/>
-      <c r="AC48" s="29"/>
-      <c r="AD48" s="29"/>
-      <c r="AE48" s="29"/>
-      <c r="AF48" s="29"/>
-      <c r="AG48" s="29"/>
-      <c r="AH48" s="29"/>
-      <c r="AI48" s="29"/>
-      <c r="AJ48" s="29"/>
-      <c r="AK48" s="29"/>
-      <c r="AL48" s="30"/>
-    </row>
-    <row r="49" spans="4:38" ht="18.75" customHeight="1">
-      <c r="D49" s="105" t="s">
-        <v>256</v>
-      </c>
-      <c r="E49" s="105"/>
-      <c r="F49" s="28" t="s">
-        <v>255</v>
-      </c>
-      <c r="G49" s="31"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="29"/>
-      <c r="K49" s="29"/>
-      <c r="L49" s="29"/>
-      <c r="M49" s="31"/>
-      <c r="N49" s="29"/>
-      <c r="O49" s="29"/>
-      <c r="P49" s="29"/>
-      <c r="Q49" s="29"/>
-      <c r="R49" s="43"/>
-      <c r="S49" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="T49" s="29"/>
-      <c r="U49" s="29"/>
-      <c r="V49" s="29"/>
-      <c r="W49" s="30"/>
-      <c r="X49" s="29" t="s">
-        <v>297</v>
-      </c>
-      <c r="Y49" s="29"/>
-      <c r="Z49" s="29"/>
-      <c r="AA49" s="29"/>
-      <c r="AB49" s="29"/>
-      <c r="AC49" s="29"/>
-      <c r="AD49" s="29"/>
-      <c r="AE49" s="29"/>
-      <c r="AF49" s="29"/>
-      <c r="AG49" s="29"/>
-      <c r="AH49" s="29"/>
-      <c r="AI49" s="29"/>
-      <c r="AJ49" s="29"/>
-      <c r="AK49" s="29"/>
-      <c r="AL49" s="30"/>
-    </row>
-    <row r="50" spans="4:38" ht="18.75" customHeight="1">
-      <c r="D50" s="105" t="s">
-        <v>258</v>
-      </c>
-      <c r="E50" s="105"/>
-      <c r="F50" s="54" t="s">
-        <v>259</v>
-      </c>
-      <c r="R50" s="47"/>
-      <c r="S50" s="54" t="s">
-        <v>234</v>
-      </c>
-      <c r="W50" s="45"/>
-      <c r="X50" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="AL50" s="45"/>
-    </row>
-    <row r="51" spans="4:38" ht="18.75" customHeight="1">
-      <c r="D51" s="105" t="s">
-        <v>273</v>
-      </c>
-      <c r="E51" s="105"/>
-      <c r="F51" s="28" t="s">
-        <v>257</v>
-      </c>
-      <c r="G51" s="31"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="29"/>
-      <c r="K51" s="29"/>
-      <c r="L51" s="29"/>
-      <c r="M51" s="31"/>
-      <c r="N51" s="29"/>
-      <c r="O51" s="29"/>
-      <c r="P51" s="29"/>
-      <c r="Q51" s="29"/>
-      <c r="R51" s="43"/>
-      <c r="S51" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="T51" s="29"/>
-      <c r="U51" s="29"/>
-      <c r="V51" s="29"/>
-      <c r="W51" s="30"/>
-      <c r="X51" s="29" t="s">
-        <v>298</v>
-      </c>
-      <c r="Y51" s="29"/>
-      <c r="Z51" s="29"/>
-      <c r="AA51" s="29"/>
-      <c r="AB51" s="29"/>
-      <c r="AC51" s="29"/>
-      <c r="AD51" s="29"/>
-      <c r="AE51" s="29"/>
-      <c r="AF51" s="29"/>
-      <c r="AG51" s="29"/>
-      <c r="AH51" s="29"/>
-      <c r="AI51" s="29"/>
-      <c r="AJ51" s="29"/>
-      <c r="AK51" s="29"/>
-      <c r="AL51" s="30"/>
-    </row>
-    <row r="52" spans="4:38" ht="18.75" customHeight="1">
-      <c r="D52" s="105" t="s">
-        <v>261</v>
-      </c>
-      <c r="E52" s="105"/>
-      <c r="F52" s="54" t="s">
-        <v>260</v>
-      </c>
-      <c r="R52" s="47"/>
-      <c r="S52" s="54" t="s">
-        <v>234</v>
-      </c>
-      <c r="W52" s="45"/>
-      <c r="X52" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="Y52" s="29"/>
-      <c r="Z52" s="29"/>
-      <c r="AA52" s="29"/>
-      <c r="AB52" s="29"/>
-      <c r="AC52" s="29"/>
-      <c r="AD52" s="29"/>
-      <c r="AE52" s="29"/>
-      <c r="AF52" s="29"/>
-      <c r="AG52" s="29"/>
-      <c r="AH52" s="29"/>
-      <c r="AI52" s="29"/>
-      <c r="AJ52" s="29"/>
-      <c r="AK52" s="29"/>
-      <c r="AL52" s="30"/>
-    </row>
-    <row r="53" spans="4:38" ht="18.75" customHeight="1">
-      <c r="D53" s="105" t="s">
-        <v>274</v>
-      </c>
-      <c r="E53" s="105"/>
-      <c r="F53" s="28" t="s">
-        <v>262</v>
-      </c>
-      <c r="G53" s="31"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="29"/>
-      <c r="K53" s="29"/>
-      <c r="L53" s="29"/>
-      <c r="M53" s="31"/>
-      <c r="N53" s="29"/>
-      <c r="O53" s="29"/>
-      <c r="P53" s="29"/>
-      <c r="Q53" s="29"/>
-      <c r="R53" s="43"/>
-      <c r="S53" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="T53" s="29"/>
-      <c r="U53" s="29"/>
-      <c r="V53" s="29"/>
-      <c r="W53" s="30"/>
-      <c r="X53" s="29" t="s">
-        <v>300</v>
-      </c>
-      <c r="Y53" s="29"/>
-      <c r="Z53" s="29"/>
-      <c r="AA53" s="29"/>
-      <c r="AB53" s="29"/>
-      <c r="AC53" s="29"/>
-      <c r="AD53" s="29"/>
-      <c r="AE53" s="29"/>
-      <c r="AF53" s="29"/>
-      <c r="AG53" s="29"/>
-      <c r="AH53" s="29"/>
-      <c r="AI53" s="29"/>
-      <c r="AJ53" s="29"/>
-      <c r="AK53" s="29"/>
-      <c r="AL53" s="30"/>
-    </row>
-    <row r="57" spans="4:38" ht="18.75" customHeight="1">
-      <c r="D57" s="9" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="58" spans="4:38" ht="18.75" customHeight="1">
-      <c r="D58" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="E58" s="9"/>
-    </row>
-    <row r="86" spans="4:31" ht="18.75" customHeight="1">
-      <c r="D86" s="115" t="s">
-        <v>129</v>
-      </c>
-      <c r="E86" s="117"/>
-      <c r="F86" s="115" t="s">
-        <v>308</v>
-      </c>
-      <c r="G86" s="116"/>
-      <c r="H86" s="116"/>
-      <c r="I86" s="117"/>
-      <c r="J86" s="116" t="s">
-        <v>292</v>
-      </c>
-      <c r="K86" s="116"/>
-      <c r="L86" s="116"/>
-      <c r="M86" s="116"/>
-      <c r="N86" s="117"/>
-      <c r="O86" s="115" t="s">
-        <v>293</v>
-      </c>
-      <c r="P86" s="116"/>
-      <c r="Q86" s="116"/>
-      <c r="R86" s="116"/>
-      <c r="S86" s="116"/>
-      <c r="T86" s="116"/>
-      <c r="U86" s="116"/>
-      <c r="V86" s="116"/>
-      <c r="W86" s="116"/>
-      <c r="X86" s="116"/>
-      <c r="Y86" s="116"/>
-      <c r="Z86" s="116"/>
-      <c r="AA86" s="116"/>
-      <c r="AB86" s="116"/>
-      <c r="AC86" s="116"/>
-      <c r="AD86" s="116"/>
-      <c r="AE86" s="117"/>
-    </row>
-    <row r="87" spans="4:31" ht="18.75" customHeight="1">
-      <c r="D87" s="109" t="s">
-        <v>250</v>
-      </c>
-      <c r="E87" s="110"/>
-      <c r="F87" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="G87" s="31"/>
-      <c r="H87" s="29"/>
-      <c r="I87" s="29"/>
-      <c r="J87" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="K87" s="29"/>
-      <c r="L87" s="29"/>
-      <c r="M87" s="31"/>
-      <c r="N87" s="30"/>
-      <c r="O87" s="29" t="s">
-        <v>329</v>
-      </c>
-      <c r="P87" s="29"/>
-      <c r="Q87" s="29"/>
-      <c r="R87" s="31"/>
-      <c r="S87" s="29"/>
-      <c r="T87" s="29"/>
-      <c r="U87" s="29"/>
-      <c r="V87" s="29"/>
-      <c r="W87" s="29"/>
-      <c r="X87" s="29"/>
-      <c r="Y87" s="29"/>
-      <c r="Z87" s="29"/>
-      <c r="AA87" s="29"/>
-      <c r="AB87" s="29"/>
-      <c r="AC87" s="29"/>
-      <c r="AD87" s="29"/>
-      <c r="AE87" s="30"/>
-    </row>
-    <row r="88" spans="4:31" ht="18.75" customHeight="1">
-      <c r="D88" s="109" t="s">
-        <v>270</v>
-      </c>
-      <c r="E88" s="110"/>
-      <c r="F88" s="29" t="s">
-        <v>276</v>
-      </c>
-      <c r="G88" s="31"/>
-      <c r="H88" s="29"/>
-      <c r="I88" s="29"/>
-      <c r="J88" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="K88" s="29"/>
-      <c r="L88" s="29"/>
-      <c r="M88" s="31"/>
-      <c r="N88" s="30"/>
-      <c r="O88" s="28" t="s">
-        <v>301</v>
-      </c>
-      <c r="P88" s="29"/>
-      <c r="Q88" s="29"/>
-      <c r="R88" s="31"/>
-      <c r="S88" s="29"/>
-      <c r="T88" s="29"/>
-      <c r="U88" s="29"/>
-      <c r="V88" s="29"/>
-      <c r="W88" s="29"/>
-      <c r="X88" s="29"/>
-      <c r="Y88" s="29"/>
-      <c r="Z88" s="29"/>
-      <c r="AA88" s="29"/>
-      <c r="AB88" s="29"/>
-      <c r="AC88" s="29"/>
-      <c r="AD88" s="29"/>
-      <c r="AE88" s="30"/>
-    </row>
-    <row r="89" spans="4:31" ht="18.75" customHeight="1">
-      <c r="D89" s="102" t="s">
-        <v>277</v>
-      </c>
-      <c r="E89" s="103"/>
-      <c r="F89" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="G89" s="5"/>
-      <c r="H89" s="4"/>
-      <c r="I89" s="4"/>
-      <c r="J89" s="50" t="s">
-        <v>249</v>
-      </c>
-      <c r="K89" s="4"/>
-      <c r="L89" s="4"/>
-      <c r="M89" s="5"/>
-      <c r="N89" s="44"/>
-      <c r="O89" s="50" t="s">
-        <v>294</v>
-      </c>
-      <c r="P89" s="4"/>
-      <c r="Q89" s="4"/>
-      <c r="R89" s="5"/>
-      <c r="S89" s="4"/>
-      <c r="T89" s="4"/>
-      <c r="U89" s="4"/>
-      <c r="V89" s="4"/>
-      <c r="W89" s="4"/>
-      <c r="X89" s="4"/>
-      <c r="Y89" s="4"/>
-      <c r="Z89" s="4"/>
-      <c r="AA89" s="4"/>
-      <c r="AB89" s="4"/>
-      <c r="AC89" s="4"/>
-      <c r="AD89" s="4"/>
-      <c r="AE89" s="44"/>
-    </row>
-    <row r="90" spans="4:31" ht="18.75" customHeight="1">
-      <c r="D90" s="97" t="s">
-        <v>279</v>
-      </c>
-      <c r="E90" s="98"/>
-      <c r="F90" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="G90" s="49"/>
-      <c r="H90" s="4"/>
-      <c r="I90" s="4"/>
-      <c r="J90" s="50" t="s">
-        <v>233</v>
-      </c>
-      <c r="K90" s="4"/>
-      <c r="L90" s="4"/>
-      <c r="M90" s="5"/>
-      <c r="N90" s="44"/>
-      <c r="O90" s="50" t="s">
-        <v>302</v>
-      </c>
-      <c r="P90" s="4"/>
-      <c r="Q90" s="4"/>
-      <c r="R90" s="5"/>
-      <c r="S90" s="4"/>
-      <c r="T90" s="4"/>
-      <c r="U90" s="4"/>
-      <c r="V90" s="4"/>
-      <c r="W90" s="4"/>
-      <c r="X90" s="4"/>
-      <c r="Y90" s="4"/>
-      <c r="Z90" s="4"/>
-      <c r="AA90" s="4"/>
-      <c r="AB90" s="4"/>
-      <c r="AC90" s="4"/>
-      <c r="AD90" s="4"/>
-      <c r="AE90" s="44"/>
-    </row>
-    <row r="91" spans="4:31" ht="18.75" customHeight="1">
-      <c r="D91" s="97" t="s">
-        <v>281</v>
-      </c>
-      <c r="E91" s="98"/>
-      <c r="F91" s="28" t="s">
-        <v>282</v>
-      </c>
-      <c r="G91" s="31"/>
-      <c r="H91" s="29"/>
-      <c r="I91" s="29"/>
-      <c r="J91" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="K91" s="29"/>
-      <c r="L91" s="29"/>
-      <c r="M91" s="31"/>
-      <c r="N91" s="30"/>
-      <c r="O91" s="28" t="s">
-        <v>295</v>
-      </c>
-      <c r="P91" s="29"/>
-      <c r="Q91" s="29"/>
-      <c r="R91" s="31"/>
-      <c r="S91" s="29"/>
-      <c r="T91" s="29"/>
-      <c r="U91" s="29"/>
-      <c r="V91" s="29"/>
-      <c r="W91" s="29"/>
-      <c r="X91" s="29"/>
-      <c r="Y91" s="29"/>
-      <c r="Z91" s="29"/>
-      <c r="AA91" s="29"/>
-      <c r="AB91" s="29"/>
-      <c r="AC91" s="29"/>
-      <c r="AD91" s="29"/>
-      <c r="AE91" s="30"/>
-    </row>
-    <row r="92" spans="4:31" ht="18.75" customHeight="1">
-      <c r="D92" s="97" t="s">
-        <v>272</v>
-      </c>
-      <c r="E92" s="98"/>
-      <c r="F92" s="28" t="s">
-        <v>283</v>
-      </c>
-      <c r="G92" s="31"/>
-      <c r="H92" s="29"/>
-      <c r="I92" s="29"/>
-      <c r="J92" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="K92" s="29"/>
-      <c r="L92" s="29"/>
-      <c r="M92" s="31"/>
-      <c r="N92" s="30"/>
-      <c r="O92" s="28" t="s">
-        <v>303</v>
-      </c>
-      <c r="P92" s="29"/>
-      <c r="Q92" s="29"/>
-      <c r="R92" s="31"/>
-      <c r="S92" s="29"/>
-      <c r="T92" s="29"/>
-      <c r="U92" s="29"/>
-      <c r="V92" s="29"/>
-      <c r="W92" s="29"/>
-      <c r="X92" s="29"/>
-      <c r="Y92" s="29"/>
-      <c r="Z92" s="29"/>
-      <c r="AA92" s="29"/>
-      <c r="AB92" s="29"/>
-      <c r="AC92" s="29"/>
-      <c r="AD92" s="29"/>
-      <c r="AE92" s="30"/>
-    </row>
-    <row r="93" spans="4:31" ht="18.75" customHeight="1">
-      <c r="D93" s="97" t="s">
-        <v>284</v>
-      </c>
-      <c r="E93" s="98"/>
-      <c r="F93" s="28" t="s">
-        <v>286</v>
-      </c>
-      <c r="G93" s="31"/>
-      <c r="H93" s="29"/>
-      <c r="I93" s="29"/>
-      <c r="J93" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="K93" s="29"/>
-      <c r="L93" s="29"/>
-      <c r="M93" s="31"/>
-      <c r="N93" s="30"/>
-      <c r="O93" s="28" t="s">
-        <v>296</v>
-      </c>
-      <c r="P93" s="29"/>
-      <c r="Q93" s="29"/>
-      <c r="R93" s="31"/>
-      <c r="S93" s="29"/>
-      <c r="T93" s="29"/>
-      <c r="U93" s="29"/>
-      <c r="V93" s="29"/>
-      <c r="W93" s="29"/>
-      <c r="X93" s="29"/>
-      <c r="Y93" s="29"/>
-      <c r="Z93" s="29"/>
-      <c r="AA93" s="29"/>
-      <c r="AB93" s="29"/>
-      <c r="AC93" s="29"/>
-      <c r="AD93" s="29"/>
-      <c r="AE93" s="30"/>
-    </row>
-    <row r="94" spans="4:31" ht="18.75" customHeight="1">
-      <c r="D94" s="97" t="s">
-        <v>285</v>
-      </c>
-      <c r="E94" s="98"/>
-      <c r="F94" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="J94" s="54" t="s">
-        <v>233</v>
-      </c>
-      <c r="N94" s="45"/>
-      <c r="O94" s="54" t="s">
-        <v>291</v>
-      </c>
-      <c r="AE94" s="45"/>
-    </row>
-    <row r="95" spans="4:31" ht="18.75" customHeight="1">
-      <c r="D95" s="97" t="s">
-        <v>253</v>
-      </c>
-      <c r="E95" s="98"/>
-      <c r="F95" s="55" t="s">
-        <v>288</v>
-      </c>
-      <c r="G95" s="31"/>
-      <c r="H95" s="29"/>
-      <c r="I95" s="29"/>
-      <c r="J95" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="K95" s="29"/>
-      <c r="L95" s="29"/>
-      <c r="M95" s="31"/>
-      <c r="N95" s="30"/>
-      <c r="O95" s="28" t="s">
+      <c r="K161" s="29"/>
+      <c r="L161" s="29"/>
+      <c r="M161" s="31"/>
+      <c r="N161" s="30"/>
+      <c r="O161" s="28" t="s">
         <v>304</v>
       </c>
-      <c r="P95" s="29"/>
-      <c r="Q95" s="29"/>
-      <c r="R95" s="31"/>
-      <c r="S95" s="29"/>
-      <c r="T95" s="29"/>
-      <c r="U95" s="29"/>
-      <c r="V95" s="29"/>
-      <c r="W95" s="29"/>
-      <c r="X95" s="29"/>
-      <c r="Y95" s="29"/>
-      <c r="Z95" s="29"/>
-      <c r="AA95" s="29"/>
-      <c r="AB95" s="29"/>
-      <c r="AC95" s="29"/>
-      <c r="AD95" s="29"/>
-      <c r="AE95" s="30"/>
-    </row>
-    <row r="96" spans="4:31" ht="18.75" customHeight="1">
-      <c r="D96" s="97" t="s">
-        <v>254</v>
-      </c>
-      <c r="E96" s="98"/>
-      <c r="F96" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="G96" s="31"/>
-      <c r="H96" s="29"/>
-      <c r="I96" s="29"/>
-      <c r="J96" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="K96" s="29"/>
-      <c r="L96" s="29"/>
-      <c r="M96" s="31"/>
-      <c r="N96" s="30"/>
-      <c r="O96" s="28" t="s">
-        <v>305</v>
-      </c>
-      <c r="P96" s="29"/>
-      <c r="Q96" s="29"/>
-      <c r="R96" s="31"/>
-      <c r="S96" s="29"/>
-      <c r="T96" s="29"/>
-      <c r="U96" s="29"/>
-      <c r="V96" s="29"/>
-      <c r="W96" s="29"/>
-      <c r="X96" s="29"/>
-      <c r="Y96" s="29"/>
-      <c r="Z96" s="29"/>
-      <c r="AA96" s="29"/>
-      <c r="AB96" s="29"/>
-      <c r="AC96" s="29"/>
-      <c r="AD96" s="29"/>
-      <c r="AE96" s="30"/>
-    </row>
-    <row r="97" spans="4:31" ht="18.75" customHeight="1">
-      <c r="D97" s="99" t="s">
-        <v>256</v>
-      </c>
-      <c r="E97" s="100"/>
-      <c r="F97" s="28" t="s">
-        <v>290</v>
-      </c>
-      <c r="G97" s="31"/>
-      <c r="H97" s="29"/>
-      <c r="I97" s="29"/>
-      <c r="J97" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="K97" s="29"/>
-      <c r="L97" s="29"/>
-      <c r="M97" s="31"/>
-      <c r="N97" s="30"/>
-      <c r="O97" s="28" t="s">
-        <v>306</v>
-      </c>
-      <c r="P97" s="29"/>
-      <c r="Q97" s="29"/>
-      <c r="R97" s="31"/>
-      <c r="S97" s="29"/>
-      <c r="T97" s="29"/>
-      <c r="U97" s="29"/>
-      <c r="V97" s="29"/>
-      <c r="W97" s="29"/>
-      <c r="X97" s="29"/>
-      <c r="Y97" s="29"/>
-      <c r="Z97" s="29"/>
-      <c r="AA97" s="29"/>
-      <c r="AB97" s="29"/>
-      <c r="AC97" s="29"/>
-      <c r="AD97" s="29"/>
-      <c r="AE97" s="30"/>
+      <c r="P161" s="29"/>
+      <c r="Q161" s="29"/>
+      <c r="R161" s="31"/>
+      <c r="S161" s="29"/>
+      <c r="T161" s="29"/>
+      <c r="U161" s="29"/>
+      <c r="V161" s="29"/>
+      <c r="W161" s="29"/>
+      <c r="X161" s="29"/>
+      <c r="Y161" s="29"/>
+      <c r="Z161" s="29"/>
+      <c r="AA161" s="29"/>
+      <c r="AB161" s="29"/>
+      <c r="AC161" s="29"/>
+      <c r="AD161" s="29"/>
+      <c r="AE161" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="F86:I86"/>
-    <mergeCell ref="J86:N86"/>
-    <mergeCell ref="O86:AE86"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="D90:E90"/>
+  <mergeCells count="52">
+    <mergeCell ref="D160:E160"/>
+    <mergeCell ref="D161:E161"/>
+    <mergeCell ref="F149:I149"/>
+    <mergeCell ref="J149:N149"/>
+    <mergeCell ref="O149:AE149"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="D157:E157"/>
+    <mergeCell ref="D158:E158"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="D159:E159"/>
     <mergeCell ref="A1:K2"/>
     <mergeCell ref="L1:T2"/>
     <mergeCell ref="U1:X1"/>
@@ -11035,24 +11313,26 @@
     <mergeCell ref="AS2:AU2"/>
     <mergeCell ref="AV2:BD2"/>
     <mergeCell ref="AJ1:AR1"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D42:E43"/>
-    <mergeCell ref="F39:R39"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="S39:W39"/>
-    <mergeCell ref="X39:AL39"/>
-    <mergeCell ref="F42:R43"/>
-    <mergeCell ref="X42:AL43"/>
-    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="D103:E104"/>
+    <mergeCell ref="F100:R100"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="S100:W100"/>
+    <mergeCell ref="X100:AL100"/>
+    <mergeCell ref="F103:R104"/>
+    <mergeCell ref="X103:AL104"/>
+    <mergeCell ref="D112:E112"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
